--- a/data/hotels_by_city/Dallas/Dallas_shard_105.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_105.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="483">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>06/06/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>James M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r551989586-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>DDukes_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r532116034-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Rosie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r504762240-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Arnette T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r494094325-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>We've never failed when it came to this series of hotels under the Choice Hotel Chain. It's within walking distance of LA Fitness and not far from a shopping center. Employees Savanah and Mecca was amazing despite the fact I had to deal with a little bit of an attitude from another young lady when I inquired about house cleaning coming later to clean our room (she cleared her attitude up before she came to the room to fix our phone). We only ate breakfast one day, but there appeared to be a variety of food available (I'm not much of a breakfast water just prefer coffee).  The room was spacious and the beds were comfortable. Everything was clean and in order. It took awhile for our room to cool off, but other than that, we will be staying again when we come back for football season!More</t>
   </si>
   <si>
+    <t>Kevin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r374305449-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>Easy in/out. Nice folks at front desk. The were able to recommend places to eat near by.Extra large room, frig in room, coffee pot in room. But no safe.soft comfy bed, extra pillows. Nice Indoor pool, Hot tub, small cardio only weight room."Happy Hour" weekday afternoons (free beer &amp; wine) chips and salsa. Fair free breakfast. Well light parking area.</t>
   </si>
   <si>
+    <t>michaeltK5545TF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r365512724-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>pat c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r365030292-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>When we walked into the room the first day, we were thrilled! The room was about 650 square feet- quite large in comparison to many hotel rooms. It really was a suite. The first area has a nice wood table in front of a sofa bed. Nice classy tables, bed, and lamps. The bathroom was rather large- lots of room to move about. The bathroom had marble throughout- making it look more like a four star property. Everything was clean and well- maintained. The wood cabinet that held the microwave and refrigerator was very nice. It had a curved front door hiding the refrigerator. It also had 3 large curved drawers. All in all- we enjoyed Comfort Suites and are glad we read the great reviews and stayed there.More</t>
   </si>
   <si>
+    <t>ohiolioness</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r361177344-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>The hotel itself is beautiful.  However, it is located 20 minutes north east of Fort Worth and about 20 minutes north of Arlington.  Our GPS could not find using Richland Hills or Fort Worth. We had to call the hotel to find out its actually located in Hurst, TX.  We drove around for almost an hour at night trying to find it.  Secondly, We called the hotel to see if we could arrive after 2am.  They stated it would not be a problem.  We arrived at 2:55am and were told we almost missed the cut off.  Basically if we were not there by 3am we wouldn't have  been able to check in.  So as you can see this already put a  bad taste in my mouth.  The  rooms are big and spacious.  The breakfast is average.  We won't stay here again.More</t>
   </si>
   <si>
+    <t>mary s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r343541111-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Jeanne M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r341065536-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -385,6 +418,9 @@
   </si>
   <si>
     <t>The room was comfortable.  I was supposed to have a King room, but the front desk was unable to change the reservation (needed manager's approval), but they were courteous.  The bedspread on one of the beds either had blood or red stain on it.More</t>
+  </si>
+  <si>
+    <t>xdrubin</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r339960600-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
@@ -412,6 +448,9 @@
 The bad - it is sort of isolated and only a Denny's and KFC are within reasonable walking distance. You can purchase some microwavable items and other items to eat from the canteen. The chair in the room wobbled considerably and did not hold height.  The replacement sat low to...I visited on business and would traveling with someone so I booked a place close to him that advertised a free shuttle.  Much to my chagrin, when I called at 6:55 pm for a pick up, I was told the shuttle only operates from 7 AM to 7 PM.  It was a $35 taxi ride even though it said it was about 8.5 miles from DFW.  They could not tell me if the Super Shuttle went to their place which may have been a bit less but this is the first Choice Hotel that I have stayed at in 10 yrs of traveling that did not have a shuttle 24/7.The good - very nice &amp; spacious rooms, comfortable bedding, lots of accessible outlets for computers &amp; phones. Nice people.  The breakfast was good with real scrambled eggs, good biscuits &amp; gravy, bacon sausage cheese and the usual packaged oatmeal, cereals, coffee, yogurt, fruit, etc.  The also have a Happy hour from 5-6:30 with free beer, wine snacks and a large screen TV.  Workout room has treadmill, weight machines and a TV.  A family Putt-Putt facility is within walking distance.The bad - it is sort of isolated and only a Denny's and KFC are within reasonable walking distance. You can purchase some microwavable items and other items to eat from the canteen. The chair in the room wobbled considerably and did not hold height.  The replacement sat low to the desk. I am a platinum member of Choice Privileges but did not get an in paper or receipt delivered. No big deal, but ......More</t>
   </si>
   <si>
+    <t>TravelbeeSantaFe_NM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r337349948-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -436,6 +475,9 @@
     <t>Suite-like rooms with microwave and refrigerator, great for spreading out. The front desk clerks were amazingly helpful. We were stranded for two nights due to weather, and the first night the clerk found us the closest car rental company about 1 a.m. when we checked in (turned out driving was not an option). The next night the clerk recommended a Chinese restaurant to deliver in as the winds were howling and the sleet was falling. Last day the desk clerk offered to have the shuttle driver take us to nearby mail if we got bored until nighttime flight time. Indoor pool and hot tub and small fitness center. Breakfast typical of these places and closes promptly on the minute. Two complaints, which is why it is not five star: the free shuttle does not run on the weekends and the ceilings are such that one can hear footfalls above. So, just book the top floor and settle in for a quiet lovely rest surrounded my a great and welcoming staff. I would definitely stay here again as the price was better than lodges closer to the airport. It is about 20-25 minutes away.More</t>
   </si>
   <si>
+    <t>Travelinghockey... D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r316389164-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -454,6 +496,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Vision293</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r307011693-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -481,6 +526,9 @@
     <t>This hotel ranks among one of my favorites. Not only is it in an ideal location off the expressway, eateries are all around and if you just want to hang out they have very nice after 5 complimentary finger food and drink session. Staff is super especially ask for Linglay (sorry if I spelled your name wrong). She is super and ready to meet your needs, Also there are a couple more I forgot their names, but were great as well. Breakfast was on point, nice swimming pool and Jacuzzi area, workout facility was nice as well. Now to the rooms? All I have to say is awesome, yes smell great, clean and you can tell they take their time to insure the ROOM is clean and dusted. I stayed here and extra couple days even though it was about 20 minutes out the way of my meetings and other gatherings. It was well worth it and will definitely be back. All Comfort Suites are not the same and this is definitely proof of that. Stay here and you will not be disappointing, If you know me by now I call it like I see it! Great job guys keep the standards high.More</t>
   </si>
   <si>
+    <t>jgumms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r301686848-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -499,6 +547,9 @@
     <t>Convenient to everything including highways and DFW airport. Free shuttle. Nothing open after 10 except for Bar Louie's, (cool place, nice patio), next to the movie theatre at the mall a short drive away. Breakfast only until 9. Cool waffle maker makes them in the shape of TEXAS! All lights are dim and yellow makes for dark rooms! King rooms are small, judging from diagram doubles are larger. Reception weekday afternoons/early evenings which is nice. Snacks, beer and wine, not much in the way of soft drinks. Nice TV selection although remote is very squirrely. Seems La Quinta, which shares the parking lot, has the same owners. Pretty quick internet too! Only 1 elevator and 2 luggage carts which are gone most of the time. Indoor pool and hot tub stay pretty busy.More</t>
   </si>
   <si>
+    <t>Bryan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r291595529-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -517,6 +568,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>renjen06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r285155385-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -532,6 +586,9 @@
     <t>I really enjoyed myself staying here with my family. Very clean and stocked. They had an hour of finger foods and a pitcher  of wine and beer in the evening. Near a mall and food.Good night's rest after swimming.</t>
   </si>
   <si>
+    <t>517beth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r273218356-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -550,6 +607,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>genealogygail</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r270446302-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -565,6 +625,9 @@
     <t>One of the most helpful staffs that we have come across.  From our first encounter with Cliff on the phone for directions to both of the young ladies that worked at the counter.  They were so helpful in guiding us to the places we wanted to see and to tell us of great places to eat</t>
   </si>
   <si>
+    <t>advocon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r267620644-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -583,6 +646,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Kim J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r257501437-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -601,6 +667,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>bill h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r250227048-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -622,6 +691,9 @@
     <t>absolutely the very best customer service i have received at any hotel anywhere.  they were at capacity and cliff, thomas, and meagan gave each person their undivided attention every instance i saw.  i am directionally challenged  so cliff basically walked me in to the hotel while i was on my cell phone.   thomas got a call from me for some late night snack help.  he said dominoes might still deliver, they did not.  he did find some pizza rolls and bought them to my room apologizing all the time.   he did not have to do that.  meagan should be the example everyone at comfort inn and suites should have to listen to.  always busy doing something, very cordial to everyone from 9-90 yrs old.  (was a youth hockey tournament in town and a hotel full of kids running around.)    all in all i will be staying at this location again if i am in the area.More</t>
   </si>
   <si>
+    <t>mshayneturner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r249159843-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -643,6 +715,9 @@
     <t>I travel to the Fort Worth area about 2 to 3 times per year.  I have been staying at this hotel each time for several years.  The rate is reasonable, the rooms are clean and comfortable, and the staff is always friendly.  I especially look forward to seeing Cliff, because he is always so friendly and engaging.  I have never had a problem staying here.  They seem to place their guests in high regard.  Last year I had bronchitis and had to stay in the hotel for over 3 weeks.  They were extremely accommodating.  The hotel is located off the freeway and is fairly quiet.  It seems to be in a decent part of town within walking distance to the Northeast Mall and several restaurants, as well as easy access to all the major highways in the area.  Breakfast in the dining area is good, and they offer frozen meals and beverages for purchase for those late-night hunger pangs.More</t>
   </si>
   <si>
+    <t>kdwait</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r247891182-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -661,6 +736,9 @@
     <t>We stayed one night at this property and have no problems recommending this hotel. It has been updated nicely and the staff was very friendly and helpful in advising close by restaurants for dinner.  The room was spacious and clean. The linens on our bed were worn and not comfortable to sleep on-but the kids said their sheets were fine. Plenty of soft fluffy towels were provided. There were plenty of outlets and chargers in the room for phones, laptops and Kindle's. Breakfast was good and the area was adequate. There are plenty of restaurants and shopping very close. I followed the advice of another reviewer and entered the address as Hurst, Texas for GPS purposes and had no difficulties finding the hotel.More</t>
   </si>
   <si>
+    <t>Tana Beth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r245980106-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -676,6 +754,9 @@
     <t>The staff was super friendly, helpful and patient.  The breakfast was good and we will stay there again when we return to texas.  Good price for what you get also. more upscale than La Quinta, no pets. no smoking.</t>
   </si>
   <si>
+    <t>Mjaj2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r245735827-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -691,6 +772,9 @@
     <t xml:space="preserve">Thanks you Cliff for a wonderful greeting and stay. Your warm, personable, friendly service made our stay rememberable. You are very polite (your mother would be very proud) and your directions got us to the right place without any problems. We will stay here again. Merry CHRISTmas.  </t>
   </si>
   <si>
+    <t>Donna M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r237299767-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -712,6 +796,9 @@
     <t>Rooms were updated and large.  Beds comfy.  But  the doors are heavy and tend to slam.  Our bathroom door was not well hung and would swing in to the bathtub.  Instead of rehanging the door, they put a doorstop into the bathroom floor that blends in with the floor and is right in front of the tub.  I stubbed my toe each time I got in to bathe!  We stayed 3 nights and one day the maid left no coffee and the next day she didn't even clean the room!  Breakfast had some appreciated goodies, cinnamon raisin bagels and peach and cherry yogurts. There was a live bug in the glass salt shaker and the employee dumped and refilled the container, but did not clean the very dirty shaker.More</t>
   </si>
   <si>
+    <t>Huds8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r235212916-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -730,6 +817,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Canfamily_9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r232797856-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -745,6 +835,9 @@
     <t>The first thing you need to know is the listed hotel address does not exist.  You will not find it with your GPS or on any map application.  It is actually located in Hurst, TX.  Anyhoo, we stayed at this hotel to go to Six Flags.  It was about 20 min. away.  Awesome hotel!  Very clean.  Excellent staff!  Warm, clean, indoor pool.  Breakfast better than average.  Would stay here again!</t>
   </si>
   <si>
+    <t>Traverler1515</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r229208873-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -754,6 +847,9 @@
     <t>September 16, 2014</t>
   </si>
   <si>
+    <t>MarvinB777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r211866203-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -775,6 +871,9 @@
     <t>This was a very positive experience. I've stayed a other hotels in the area but found this to be best suited for my needs and in the price range I wanted. The room was in great shape, newer furnishings, good bed and bedding. The people serving at the front desk were great to work with and went the extra mile to help provide a meeting room. One of the greatest advantages for me was that they provided shuttle service both to and from DFW. This saved me from renting a car since I had transportation to and from local meetings. Price was very good. An added benefit was the hot hors d'oeuvre served one of the evenings. Nice room - nice folks! I'd definitely use them again.More</t>
   </si>
   <si>
+    <t>rrfh1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r210739670-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -790,6 +889,9 @@
     <t>Super nice hotel in an older section of Dallas.  The hotel is very modern, super clean, accessible to the Richard Hills Mall and lots of restaurants.  The staff was very friendly and helpful.  The hotel is about 30 minutes from the AT&amp;T stadium if traffic is moving at a good pace.  If you're on a tighter schedule, give yourself plenty of time to arrive as traffic in Dallas does tend to back up.</t>
   </si>
   <si>
+    <t>yvonner123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r209146818-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -805,6 +907,9 @@
     <t>This hotel was extremely clean, very nicely decorated and very conveniently located. This was our first stay and we couldn't have been more pleased.  The breakfast area was clean, very extensive selection of food. The front desk manager, Cliff was outstanding!  He used our names, remembered details and dressed very professionally.  I requested a shower cap and Cliff went to another hotel across the parking lot to get me one as they were out - he didn't settle for "sorry, we're out".  This is the only hotel we'll stay at when visiting Dallas/Fort Worth.</t>
   </si>
   <si>
+    <t>BCNDWorld</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r202128598-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -832,6 +937,9 @@
     <t>This was a surprisingly pleasant experience. After dealing with, what I felt was terrible service from Choice corporate, and so-so response from the hotel management, when I arrived the personnel were very cordial and really made for a great experience as far as hotels are concerned. The hotel is either newer or recently remodeled and it’s nice especially for the price. Pool, workout room, big breakfast area, great staff, I liked everything about this hotel. . . once I arrived. The food was better than average, the room was nicely decorated, clean, and updated. I prepaid at the cheaper rate and then wanted to change the date about 3 days later and move it out 1 week. They had plenty of availability but would prefer losing the customer to simply moving the date out. Granted their support is done overseas, but there is an art to telling customers, “We have your money so sorry about your screw up Buddy”, which they don’t have. I dealt with several people, then I was put on infinite hold or they just moved on. Really left me irritated.More</t>
   </si>
   <si>
+    <t>mopena14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r195238616-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -850,6 +958,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>JNCrum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r193114546-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -886,6 +997,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Gerald C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r189993323-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -901,6 +1015,9 @@
     <t>Extremly nice hotel check in was very quick room very nice and clean would highly recommend if you are in this area book a room here you will not be disappointed. Easy access to loop 820 about 10 miles from AT &amp; T Stadium Mall across the street.</t>
   </si>
   <si>
+    <t>Mike K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r179773362-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -922,6 +1039,9 @@
     <t>I am a business traveler so I spend 80-100 nights per year in a hotel.  I guess you would say it's my home away from home.  I have been staying at this Comfort Suites since 2009 when they opened.  I was very impressed right from the start.  Mel, the GM, was very professional and helpful since the beginning.  Most of the front desk clerks have been with Mel since day one which is a good sign.  I can easily say that this isn't only my favorite Comfort Suites hotel, but my favorite hotel period.  I haven't had one issue with this hotel or Mel over the 4 years that I have been staying here.  They have a nice indoor pool, nice clean rooms, decent business center, and a happy hour which isn't offered at most Comfort Suites.  Someone had suggested this to Mel a few years ago and he agreed it was a good idea and implemented it.  When I'm on business I can stay at any hotel up to $200.  I choose to stay here because they treat me as well or better then any $200 hotel.  The front desk clerks are always professional and friendly...Cliff and Thomas are awesome.  I even stay at this hotel when I have business on the other side of town.  I would rather stay at this hotel and drive a little longer in the morning.....it's that good.   I have also stayed at this...I am a business traveler so I spend 80-100 nights per year in a hotel.  I guess you would say it's my home away from home.  I have been staying at this Comfort Suites since 2009 when they opened.  I was very impressed right from the start.  Mel, the GM, was very professional and helpful since the beginning.  Most of the front desk clerks have been with Mel since day one which is a good sign.  I can easily say that this isn't only my favorite Comfort Suites hotel, but my favorite hotel period.  I haven't had one issue with this hotel or Mel over the 4 years that I have been staying here.  They have a nice indoor pool, nice clean rooms, decent business center, and a happy hour which isn't offered at most Comfort Suites.  Someone had suggested this to Mel a few years ago and he agreed it was a good idea and implemented it.  When I'm on business I can stay at any hotel up to $200.  I choose to stay here because they treat me as well or better then any $200 hotel.  The front desk clerks are always professional and friendly...Cliff and Thomas are awesome.  I even stay at this hotel when I have business on the other side of town.  I would rather stay at this hotel and drive a little longer in the morning.....it's that good.   I have also stayed at this hotel when coming up with my girlfriend for a weekend getaway.  If I could give this more than 5 stars I would.  I stay at hotels all over the country and this is by far my favorite.  I always look forward to seeing Mel and the front desk clerk when I arrive.  Mel always makes time to chat with me when I arrive and leave.  As far as the negative comments that were posted from a few people on here, I wouldn't pay too much attention.  Most of the hotels that I stay at don't let you pay cash without a deposit because you could damage the room and they have no repercussions. I have never seen the GM, Mel, be rude to a guest or employee in the 4 years that I have been staying here.  I  honestly cannot think of anything negative to say about this hotel......just one word......AWESOME!!!      Mike KatzMore</t>
   </si>
   <si>
+    <t>Shandond</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r177562271-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -937,6 +1057,9 @@
     <t>To start I called to ask a few questions about hotel. Was told pool was heated (was not), told about all the items for breakfast (were not served).  The night desk person both nights very helpful. Since leaving the hotel I am been harassed by the GM Mel. He has accused me and my family of damaging a sofa. He has called is liars and threatened us.  I would suggest you find somewhere else to stay.</t>
   </si>
   <si>
+    <t>islaforme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r174398890-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -953,6 +1076,9 @@
   </si>
   <si>
     <t>August 2013</t>
+  </si>
+  <si>
+    <t>travelbear77</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r163382818-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
@@ -984,6 +1110,9 @@
 This is a much better option than many other NE Tarrant...I have had the opportunity of staying at this hotel many times during the last several months.  I am there on Saturday night, and both of the Saturday evening hosts--Cliff and Thomas--and the usual Sunday morning hostess--Juanita--are models for what front desk personnel at every hotel should be.  Obviously, I am a "regular," but very early on they began to call me by my name, the guys on Saturday evening always have my paperwork ready to sign and always ask if everything is okay when I am in the lobby, and, Juanita is always a cheerful voice on Sunday morning.The suites are very spacious--much more so than even other Comfort Suites and much more so than similar "one room suites" of other chains.The only two problems have been relatively small--they have changed their cable TV service more than once, and there has been no channel listing in their guide (although I expect that will be remedied soon).  And, to their credit, they seem to be very accommodating for weekend groups.  Thankfully, there has never really been a significant noise problem, but it does cause some challenges with the Sunday morning breakfast.  The posted start time is 7:00 a.m. on Sunday, but there are always quite a few people there already.The breakfast is not incredible, but it is typical of this sort of establishment, and much appreciated.This is a much better option than many other NE Tarrant County hotels because of the easy access to I-820, and it is just across the highway from a large mall and many other shops and restaurants.More</t>
   </si>
   <si>
+    <t>txfam-MEXICO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r162145928-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1012,6 +1141,9 @@
 I was told that I could ONLY pay cash in the morning when we checked out of the room.  Fine.  When I tried to get a receipt, the front desk clerk told me that...As a Choice Hotel Elite traveler, I do not often have the kind of check-in and check-out experience that I encountered when I recently stayed at this Comfort Suites property.  During Memorial Day Weekend, I booked two rooms for one night to attend the Taylor Swift concert in Arlington.  I always pay cash for rooms but hold the rooms with a major credit card.  I have learned that if I don't pay cash while checking in, many hotels will automatically run my credit card for faster check out.  However, the front desk clerk advised me that I was NOT PERMITTED to pay by cash because the owner/GM was concerned that I would steal the TV off the wall or otherwise vandalize the property.  The front desk clerk also advised me that this property was "not like other Comfort Suites" and made it clear that cash-paying guests were scrutinized very carefully.  The clerk had to call the GM TWICE to receive approval for me to pay cash.  This was seriously the most bizarre and most difficult check-in experience I have EVER encountered at a Choice Hotel property.  By the time we got to our rooms, I was stressed out and we were running late to the event.I was told that I could ONLY pay cash in the morning when we checked out of the room.  Fine.  When I tried to get a receipt, the front desk clerk told me that "her system was running slow" and tried two computers to no avail to print a receipt for me.As of this morning, it appears my credit card was charged for both of the rooms.  Awesome.I can say with confidence that we did not vandalize the property nor did we steal any TVs.  I can also boldly say that we will never stay at this Choice Hotel property ever again.  Like ever.More</t>
   </si>
   <si>
+    <t>SeekerofSun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r159261898-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1027,6 +1159,9 @@
     <t>From the moment we walked into the door of the Comfort Suites, we were treated as special guests. The service and friendliness of the staff was warm and prompt. The hotel was clean in both the rooms and reception areas. We stayed here while visiting our daughter's family in Fort Worth. The location is very good - the airport is close, and lots of shopping and restaurants nearby. We enjoyed the hot breakfasts. We plan to staff here on future visits to the Dallas/Fort Worth area.</t>
   </si>
   <si>
+    <t>KcKansas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r155833826-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1045,6 +1180,9 @@
     <t>I am a frequent business traveler.  I could not tell you how many times the people at the front desk of other hotels have watched me (possibly with amusement) get my bags out of the car and get them and my purse and all of my work related items wrangled up to their front door (usually double doors) hold open the door - get a case in the way to get thru to open the next door and finally make it to the front counter.  Today, as I was taking my suitcases (yep 2 of them) out of the back of my rental car an incredibly sweet and helpful smiling young woman met me at my car and helped me inside with my belongings.  This is a first for me!  (and I stay in hotels about 100 nights per year).  She offered to help me find anything I might need in town.  Even showed me how to get around all the road construction to get somewhere.  SHE IS A GEM!   Oh - yeah - the hotel is stunning as well!More</t>
   </si>
   <si>
+    <t>dcfdue1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r154696086-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1063,6 +1201,9 @@
     <t>I stayed at this hotel March 8-11th.  I was in town on business as well as visiting family.  My first complaint comes when I called the hotel to let them know that I would be checking in late.  In addition, I told them that my daugther would arrive in town ahead of me and would like to check into the hotel.  I asked them if they could let her check in and I would swipe my card when I arrive.  However, the desk clerk told me that he would not be able to do it.  I informed him that they already had my card on file and I would be arriving in a couple of hours.  He then told me that he would have the front desk clerk Juanita call me when she arrived in 5 minutes.  I never received a call from her so I called the hotel back.  Juanita told me that she never received a message from the other front desk clerk to call me.  Well with all of that being said, she was very nice and she told me that she would let my daughter check in upon arrival.  Juanita was very nice.  The second and third complaint comes from all of the noise at night in the room above me and also from the room across the hall.  I had a very important meeting Monday mornign and was not able to go to sleep until...I stayed at this hotel March 8-11th.  I was in town on business as well as visiting family.  My first complaint comes when I called the hotel to let them know that I would be checking in late.  In addition, I told them that my daugther would arrive in town ahead of me and would like to check into the hotel.  I asked them if they could let her check in and I would swipe my card when I arrive.  However, the desk clerk told me that he would not be able to do it.  I informed him that they already had my card on file and I would be arriving in a couple of hours.  He then told me that he would have the front desk clerk Juanita call me when she arrived in 5 minutes.  I never received a call from her so I called the hotel back.  Juanita told me that she never received a message from the other front desk clerk to call me.  Well with all of that being said, she was very nice and she told me that she would let my daughter check in upon arrival.  Juanita was very nice.  The second and third complaint comes from all of the noise at night in the room above me and also from the room across the hall.  I had a very important meeting Monday mornign and was not able to go to sleep until after 12 midnight.  I had to call the front desk twice to have them ask the people to be courteous of other hotel guest.  The people across the hall were letting their 3 children, ages ranging from 9 and under run up and down the hall slamming doors at 11:30p.m at night.  The front desk clerks were nice, with the exception of the gentleman who did not deliver the message and could not help me with my request.  The hotel is very nice and clean with ok breakfast.More</t>
   </si>
   <si>
+    <t>MarshallR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r153459580-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1225,9 @@
     <t>I am a frequent guest at Choice Hotels and this property ranks very high on my list of Comfort Suites. The rooms are quite large and have plenty of room to do any last minute work or just relax.  When entering the hotel you are greeted by friendly employees (Thomas to name just one).  The exterior of the hotel and the common areas are neat and clean.  All of the staff that I had contact with were very friendly and helpful.  Be sure to enjoy the reception that the hotel hosts most week nights. The hotel is close to a large shopping mall and there are many restaurants within a mile or less of the hotel.  The hotel is not the easiet to find but once you get there , I'm sure that you will enjoy your stay.More</t>
   </si>
   <si>
+    <t>country_kris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r153346113-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1102,6 +1246,9 @@
     <t>As a Choice employee, I tend to be a little harsher when it comes to travel, but this hotel surpassed my expectations ten-fold.  Great, clean, inviting room with comfy beds and extra bedding in closet in case it is needed.  When we checked in, Cliff at the front desk took great care of us. Quick, easy, friendly checkin. It's amazing what a simple smile does when you walk in the door.  Also, Juanita, who re-did our keys at night and checked us out in the morning was a great way to start the morning. Smiling, friendly, efficient and super helpful.  You have a wonderful staff on site, and well trained as well.Breakfast the next morning was MORE than I needed to get the day started, and well kept.  If you are coming through Hurst and need a great hotel for one night, this is DEFINITELY the hotel to choose :)More</t>
   </si>
   <si>
+    <t>marshaw446</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r129433583-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1123,6 +1270,9 @@
     <t>I found this hotel online while searching for a place to stay for the weekend while we attended an event at Cowboys Stadium. It was a much better deal than the location in Arlington. The hotel has a beautiful, modern decor. The staff were very friendly and helpful. The suite was large and comfortable with a good bed. I thought the breakfast was a little sparse, but it was better than a lot of places. From this location, you can easily get to the attractions in Arlington without getting on the freeways. Also, there is a large mall about a block away if you like to shop. It was a great choice for our stay!More</t>
   </si>
   <si>
+    <t>laveda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r127980854-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1138,6 +1288,9 @@
     <t>Needed a decent place to stay for the races, very nice staff was very nice.  Rooms are fairly large beds comfy, bathroom nice and big and clean great buy for the money.</t>
   </si>
   <si>
+    <t>pinlow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r121836688-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1154,6 +1307,9 @@
   </si>
   <si>
     <t>December 2011</t>
+  </si>
+  <si>
+    <t>bjandljtravels</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r119721792-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
@@ -1183,6 +1339,9 @@
 One negative is that the hotel only has one elevator - for its size it probably needs two to reduce the wait time.  One other negative - it is located in an odd spot near the highway and to get back to the mall you have to take back roads and the highway going south is not easily accessible because the on-ramp is just before the property's entrance-so you...Stayed three nights at the Comfort Suites near Fort Worth for a church convention in mid-October with my spouse.  We received a great rate which made the stay a bargain.  The comfort suites is a nice property - nothing fancy but the hotel is fairly new and is in good condition.  The room was in good condition and included a couch.  Staff at the front desk "kiosks" were friendly and helpful.  The hotel offers a nice free breakfast and snacks in the afternoon.  The lobby is small but tastefully decorated.One comment on the snacks in the lobby in the afternoon.  It was a nice touch but they only offered wine or beer for free.  I don't drink alcohol and had to pay for a soft drink.  Offer free soft drinks as well.I would actually compare the quality of this propery to a Hilton Garden Inn - not quite as nice but almost.  It is certainly a much better value at about ~$50 less/night than recent stays at Garden Inns.One negative is that the hotel only has one elevator - for its size it probably needs two to reduce the wait time.  One other negative - it is located in an odd spot near the highway and to get back to the mall you have to take back roads and the highway going south is not easily accessible because the on-ramp is just before the property's entrance-so you have to travel the access road to the next exit.More</t>
   </si>
   <si>
+    <t>larry_kak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r119590900-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1357,9 @@
     <t>I recently spent three nights at this hotel and would make the following observations:If you are part of a larger group check in, forget it.  They use 2 stations to check  in guests and wnen I wanted to check in one was not staffed. It took FOREVER!!!Breakfast is advertised to be ready at 6:30, but is never completely available until 6:45. Do not count on a complete breakfast at 6:30.Also there seemed to be a lack of knowledge regarding the local area. I drew blank stares when asking for directions and later established the location was in close proximity to the hotel and should have been known.</t>
   </si>
   <si>
+    <t>bbnkogle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r119373056-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1213,6 +1375,9 @@
     <t xml:space="preserve">I had to stay there because it was close to hospital. The people were so wonderful!! Rooms were nice and clean. Highly recommend to anyone </t>
   </si>
   <si>
+    <t>tke_303</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r89761002-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1234,6 +1399,9 @@
     <t>My typical business stays are at most Choice Hotel chains throughout Texas. I have to say, that this place has to be tops in my opinion. It's a new hotel, which by default will be much nicer than some of it's neighboring cousins in the area. Rooms have a "modern decor" to them, nice bathrooms, LCD tv's, suite style rooms, etc. This hotel almost has a very "boutique hotel" feel to it, very different from most Choice Hotel brands I've stayed at in the past. Location is great if your in the Mid-Cities (HEB) area, or in North or NorthEast Ft. Worth. Easy access on and off the highways, buch of restaurants around hotel. Not a bad drive from DFW (again if your staying in the area). As with your typical Comfort Suites, they've got an 'ok' continental breakfast in the morning, and a nice little 'happy hour' in the evening for us seasoned business road warriors. I LOVE any hotel that's got free beer for me; so, this place had me right when I walked in the door!Price is good too for those of us on travel expense budgets. I think I paid $85/night without taxes, great overall value for the quality of this hotel. All-in-all, great hotel with great accomodations, great price and great location (for NE Fort Worth). Would definately recommend.More</t>
   </si>
   <si>
+    <t>civil-warrior</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r78783823-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1255,6 +1423,9 @@
     <t>I was planning to stay here 2 nights. My plans changed and decided to stay another 3 nights. If that doesn't say it, what more do you want? It's about 15 minutes from downtown Fort Worth so it's easy to get to. Close to the highway for access but rooms were quiet. Location is nicely set back (not difficult to find) as some reviewers say, as long as you know the other landmarks to look for such as LA Fitness. Great mall and stores just across the highway with terrific restaurants choices! Staff was super friendly, nice, courteous, and accommodating. The parking lot is shared with a La Quinta which is just across from the Comfort Suites, and well lit. Again, it is set back so it felt pretty safe. The hotel itself is fairly narrow but 4 floors high. I was on the top floor so it all felt great. Breakfast was standard for a Comfort Suites, but with coffee and more available all day. Manager's reception were a few tacos and soda and taquinos (?) - nothing much unless you happen to be there at that time and hungry. Business center was convenient and private. No vending machines, but a small "store" of snacks and drinks in the lobby. The lobby was dark but pleasant. Rooms were well lit, extremely clean, well maintained, and housekeeping did everything they were supposed to do each day. The carpets in the...I was planning to stay here 2 nights. My plans changed and decided to stay another 3 nights. If that doesn't say it, what more do you want? It's about 15 minutes from downtown Fort Worth so it's easy to get to. Close to the highway for access but rooms were quiet. Location is nicely set back (not difficult to find) as some reviewers say, as long as you know the other landmarks to look for such as LA Fitness. Great mall and stores just across the highway with terrific restaurants choices! Staff was super friendly, nice, courteous, and accommodating. The parking lot is shared with a La Quinta which is just across from the Comfort Suites, and well lit. Again, it is set back so it felt pretty safe. The hotel itself is fairly narrow but 4 floors high. I was on the top floor so it all felt great. Breakfast was standard for a Comfort Suites, but with coffee and more available all day. Manager's reception were a few tacos and soda and taquinos (?) - nothing much unless you happen to be there at that time and hungry. Business center was convenient and private. No vending machines, but a small "store" of snacks and drinks in the lobby. The lobby was dark but pleasant. Rooms were well lit, extremely clean, well maintained, and housekeeping did everything they were supposed to do each day. The carpets in the room were an odd dark brown blend that looked like it was capturing dirt or trying to hide it. Beds were comfy, room was quiet. Good place to stay if in the area.More</t>
   </si>
   <si>
+    <t>snuggers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r63529690-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1276,6 +1447,9 @@
     <t>Upon entering the hotel you are greeted at a peninsula type counter not like other hotels with the big long front desk counter. I was greeted by name upon entering. The evening reception was just starting when I arrived. Nice snacks (warm nachos, chicken nuggets, tacquitos, etc), beer, wine and soda were provided. Breakfast was good the next morning too. They had eggs, sausage, TX waffles, assorted fruit and pasteries, and beverages to compliment any taste. The rooms were contemporary. They are new so everything is of exceptional quality. Granite in the bathroom, plush comforter on the bed, hidden fridge and microwave. Nice sized flat screen TV with all the good cable channels not just a few like you might get elsewhere. They have a business center, fitness room and pool. Convenient location to get to DFW, Fort Worth, Dallas, and shopping mall across the highway down a few blocks. Hotel not so easy to see from street which is good or bad. Hard to find the first time, but you will enjoy the quiet by not being right by the street. Best way to find is to GPS the KFC on the corner, LA fitness or the Saturn dealership down the road so you are sure to find it. Set back from the frontage road. On SW corner of Pipeline(aka Glenview) and 121 / 183 / 820 (same route numbers). If you see the KFC turn onto the frontage...Upon entering the hotel you are greeted at a peninsula type counter not like other hotels with the big long front desk counter. I was greeted by name upon entering. The evening reception was just starting when I arrived. Nice snacks (warm nachos, chicken nuggets, tacquitos, etc), beer, wine and soda were provided. Breakfast was good the next morning too. They had eggs, sausage, TX waffles, assorted fruit and pasteries, and beverages to compliment any taste. The rooms were contemporary. They are new so everything is of exceptional quality. Granite in the bathroom, plush comforter on the bed, hidden fridge and microwave. Nice sized flat screen TV with all the good cable channels not just a few like you might get elsewhere. They have a business center, fitness room and pool. Convenient location to get to DFW, Fort Worth, Dallas, and shopping mall across the highway down a few blocks. Hotel not so easy to see from street which is good or bad. Hard to find the first time, but you will enjoy the quiet by not being right by the street. Best way to find is to GPS the KFC on the corner, LA fitness or the Saturn dealership down the road so you are sure to find it. Set back from the frontage road. On SW corner of Pipeline(aka Glenview) and 121 / 183 / 820 (same route numbers). If you see the KFC turn onto the frontage road  go past LA fitness then look far back you will see the hotel set back from the road.More</t>
   </si>
   <si>
+    <t>tmwillie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r62197349-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1292,6 +1466,9 @@
   </si>
   <si>
     <t>April 2010</t>
+  </si>
+  <si>
+    <t>bjbacker</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r58406859-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
@@ -1814,43 +1991,47 @@
       <c r="A2" t="n">
         <v>58858</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1864,50 +2045,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58858</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>408</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1921,50 +2106,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58858</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>125675</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1978,50 +2167,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58858</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125676</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2035,50 +2228,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58858</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>47748</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2092,50 +2289,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58858</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>639</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2155,7 +2356,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -2168,37 +2369,37 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2218,50 +2419,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58858</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>125677</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2275,50 +2480,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58858</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>58523</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2332,50 +2541,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58858</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>125678</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2395,50 +2608,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58858</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>104005</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2458,50 +2675,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58858</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>3900</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2519,56 +2740,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="X13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58858</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>105403</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2586,56 +2811,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="X14" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58858</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>125679</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2655,50 +2884,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58858</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125680</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2718,50 +2951,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58858</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125681</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2779,56 +3016,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="X17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58858</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>125682</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2848,50 +3089,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58858</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>584</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2905,50 +3150,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58858</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>125683</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2962,50 +3211,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58858</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>125684</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3023,50 +3276,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58858</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>125685</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3086,50 +3343,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58858</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>72214</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3143,50 +3404,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58858</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>9110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3206,50 +3471,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58858</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>125686</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3269,50 +3538,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58858</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>125687</v>
+      </c>
+      <c r="C26" t="s">
+        <v>223</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="J26" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3332,50 +3605,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58858</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>125688</v>
+      </c>
+      <c r="C27" t="s">
+        <v>231</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3395,50 +3672,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58858</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>125689</v>
+      </c>
+      <c r="C28" t="s">
+        <v>238</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3458,41 +3739,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58858</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125690</v>
+      </c>
+      <c r="C29" t="s">
+        <v>244</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="K29" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
@@ -3511,50 +3796,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58858</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>7432</v>
+      </c>
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3574,50 +3863,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58858</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>125691</v>
+      </c>
+      <c r="C31" t="s">
+        <v>258</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="J31" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="O31" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3635,50 +3928,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58858</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125692</v>
+      </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J32" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K32" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3698,35 +3995,39 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58858</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>72541</v>
+      </c>
+      <c r="C33" t="s">
+        <v>271</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="J33" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -3742,51 +4043,52 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58858</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>125693</v>
+      </c>
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="J34" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3810,50 +4112,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58858</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>125694</v>
+      </c>
+      <c r="C35" t="s">
+        <v>283</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="J35" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="K35" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3877,50 +4183,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58858</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>125695</v>
+      </c>
+      <c r="C36" t="s">
+        <v>289</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="J36" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="K36" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="L36" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="O36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -3944,50 +4254,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>58858</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>83065</v>
+      </c>
+      <c r="C37" t="s">
+        <v>295</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="J37" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="K37" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4009,56 +4323,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="X37" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="Y37" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>58858</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>125696</v>
+      </c>
+      <c r="C38" t="s">
+        <v>305</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="J38" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="K38" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="L38" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4082,50 +4400,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>58858</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>125697</v>
+      </c>
+      <c r="C39" t="s">
+        <v>312</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="J39" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="K39" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="L39" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4139,50 +4461,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>58858</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>125679</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="J40" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="K40" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="O40" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4206,50 +4532,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>58858</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>7948</v>
+      </c>
+      <c r="C41" t="s">
+        <v>325</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="J41" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="K41" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="O41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4273,50 +4603,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>58858</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>10362</v>
+      </c>
+      <c r="C42" t="s">
+        <v>331</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="J42" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="K42" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4340,41 +4674,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>58858</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>125698</v>
+      </c>
+      <c r="C43" t="s">
+        <v>339</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="J43" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="K43" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -4403,50 +4741,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>58858</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>125699</v>
+      </c>
+      <c r="C44" t="s">
+        <v>345</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="J44" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="O44" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4470,50 +4812,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>58858</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>125700</v>
+      </c>
+      <c r="C45" t="s">
+        <v>352</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="J45" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="K45" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4537,50 +4883,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>58858</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>125701</v>
+      </c>
+      <c r="C46" t="s">
+        <v>360</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="J46" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="K46" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4602,56 +4952,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="X46" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="Y46" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>58858</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>125702</v>
+      </c>
+      <c r="C47" t="s">
+        <v>369</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="J47" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="K47" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="O47" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4675,50 +5029,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>58858</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>125703</v>
+      </c>
+      <c r="C48" t="s">
+        <v>375</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="J48" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="K48" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="L48" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4742,50 +5100,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>58858</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>125704</v>
+      </c>
+      <c r="C49" t="s">
+        <v>382</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="J49" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="K49" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="L49" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4809,50 +5171,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>58858</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>125705</v>
+      </c>
+      <c r="C50" t="s">
+        <v>389</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="J50" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="K50" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4876,50 +5242,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>58858</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>125706</v>
+      </c>
+      <c r="C51" t="s">
+        <v>397</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="J51" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="K51" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="L51" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="O51" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -4943,50 +5313,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>58858</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>125707</v>
+      </c>
+      <c r="C52" t="s">
+        <v>404</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="J52" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="K52" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="O52" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5010,50 +5384,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>58858</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>125708</v>
+      </c>
+      <c r="C53" t="s">
+        <v>412</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="J53" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="K53" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="L53" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5077,50 +5455,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>58858</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>125709</v>
+      </c>
+      <c r="C54" t="s">
+        <v>418</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="J54" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="K54" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="L54" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="O54" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5144,50 +5526,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>58858</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>125710</v>
+      </c>
+      <c r="C55" t="s">
+        <v>425</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="J55" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="K55" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="L55" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="O55" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5201,50 +5587,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>58858</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>125711</v>
+      </c>
+      <c r="C56" t="s">
+        <v>433</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="J56" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="K56" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="L56" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="O56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5268,41 +5658,45 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>58858</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>125712</v>
+      </c>
+      <c r="C57" t="s">
+        <v>439</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="J57" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="K57" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="L57" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -5331,50 +5725,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>58858</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>125713</v>
+      </c>
+      <c r="C58" t="s">
+        <v>445</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="J58" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="K58" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="L58" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5398,50 +5796,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58858</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>125714</v>
+      </c>
+      <c r="C59" t="s">
+        <v>453</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="J59" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="K59" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="L59" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="O59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5465,50 +5867,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>58858</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>125715</v>
+      </c>
+      <c r="C60" t="s">
+        <v>461</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="J60" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="K60" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="L60" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5532,50 +5938,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>58858</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>125716</v>
+      </c>
+      <c r="C61" t="s">
+        <v>469</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="J61" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="K61" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="L61" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="O61" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5599,50 +6009,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>58858</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>125717</v>
+      </c>
+      <c r="C62" t="s">
+        <v>476</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="J62" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="K62" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="L62" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="O62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5666,7 +6080,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_105.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_105.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="618">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,39 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
-    <t>06/06/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r593127800-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>56540</t>
+  </si>
+  <si>
+    <t>1477368</t>
+  </si>
+  <si>
+    <t>593127800</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>A fresh breath of air</t>
+  </si>
+  <si>
+    <t>I loved every moment. Parking is in good range of front door and ambiance was on point. Clean, crisp and fresh atmosphere. Quick check in, top notch rooms and did I mention so clean. I missed a few things when packing but as I got ready to shower I read a nice little note stating,  "did you forget something call front desk for FREE items." How cool was that? Took my mind straight to ease. Every moment was a fresh breath of air.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r561732864-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
-    <t>56540</t>
-  </si>
-  <si>
-    <t>1477368</t>
-  </si>
-  <si>
     <t>561732864</t>
   </si>
   <si>
@@ -180,9 +198,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>James M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r551989586-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -204,9 +219,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>DDukes_13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r532116034-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -228,9 +240,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Rosie M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r504762240-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -249,12 +258,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Arnette T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r494094325-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -276,7 +279,208 @@
     <t>We've never failed when it came to this series of hotels under the Choice Hotel Chain. It's within walking distance of LA Fitness and not far from a shopping center. Employees Savanah and Mecca was amazing despite the fact I had to deal with a little bit of an attitude from another young lady when I inquired about house cleaning coming later to clean our room (she cleared her attitude up before she came to the room to fix our phone). We only ate breakfast one day, but there appeared to be a variety of food available (I'm not much of a breakfast water just prefer coffee).  The room was spacious and the beds were comfortable. Everything was clean and in order. It took awhile for our room to cool off, but other than that, we will be staying again when we come back for football season!More</t>
   </si>
   <si>
-    <t>Kevin H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r475006438-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>475006438</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>There is no place like Comfort Suites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every time I fly to Texas - I stay in this hotel. To say that staff is hospitable here is to say nothing. They make me feel at home. Shuttle service has always been awesome. Want to express my gratitude to Carrie Lee - she is the most helpful manager ever. I simply love this place and people. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r473704809-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>473704809</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>I Did It here day after Christmas</t>
+  </si>
+  <si>
+    <t>Yes I did! A great way to spend the day after Christmas. This hotel had it going for the Monday Night Football game! A great staff assisted us with our family watching the game and having a blast here. The rooms were all comfortable, clean and equipped with all updated and modern amenities. TV programming was great . The wifi was good. Fridge, Coffee pot and microwave all in good condition. The indoor pool and hot tub was excellent.I would do it again here any time.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r454088693-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>454088693</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit in North Texas </t>
+  </si>
+  <si>
+    <t>The front desk clerk was courteous and friendly.  She double checked to see if the room was clean and available.   The room itself was spacious and comfortable.  was able to use the air conditioner, even in winter. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>AGM_Carrie_Lee, Manager at Comfort Suites Near Northeast Mall, responded to this reviewResponded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>The front desk clerk was courteous and friendly.  She double checked to see if the room was clean and available.   The room itself was spacious and comfortable.  was able to use the air conditioner, even in winter. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r441531238-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>441531238</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>Front Desk receptionist Rebecca is absolutely fantastic. Personable, kind, and funny! We were here for 3 days and she remembered our names and always greeted us. I'd return just because of her. Amazing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Front Desk receptionist Rebecca is absolutely fantastic. Personable, kind, and funny! We were here for 3 days and she remembered our names and always greeted us. I'd return just because of her. Amazing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r439604360-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>439604360</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Rude employees</t>
+  </si>
+  <si>
+    <t>The hotel was ok with rooms that are fairly large.  However, the big negative is how we were treated.  We were "shushed" by one employee when we were trying to check out items while she was on the phone.  The most rude employee by far was "Rashad".  We returned very late from restaurant and had hands loaded with our babies and packages. The hotel door was locked, so we pushed thinking that was what arrows indicted.  Evidently, he was security and growled us not to do that, which was understandable.  What was NOT acceptable, was when he asked us if we could read!!  We will not be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>AGM_Carrie_Lee, Manager at Comfort Suites Near Northeast Mall, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was ok with rooms that are fairly large.  However, the big negative is how we were treated.  We were "shushed" by one employee when we were trying to check out items while she was on the phone.  The most rude employee by far was "Rashad".  We returned very late from restaurant and had hands loaded with our babies and packages. The hotel door was locked, so we pushed thinking that was what arrows indicted.  Evidently, he was security and growled us not to do that, which was understandable.  What was NOT acceptable, was when he asked us if we could read!!  We will not be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r411217806-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>411217806</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nrh2o waterpark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay after a day at the waterpark. Nice size rooms. Room and bathroom was clean. Nice staff. Breakfast is ok since it is waffles, cereals, yogurt. Hot is biscuits and gravy and there kind of eggs. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r406774620-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>406774620</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Good for one night, smelly and musty hotel</t>
+  </si>
+  <si>
+    <t>The rate of the hotel is good enough that I would stay here again on a short trip.  The room was very nice for a budget hotel.  The beds were fine, the bathroom was nice.  Nothing at all wrong with the room itself.  The breakfast area was very good for a budget hotel.  The thing that turned me off is that the hotel lobby and hallways smell terrible.  In the lobby, they have some sort of fragrance trying to mask the odor.  The rest of the hotel just smells bad.  It reminds me of the musty smell you get from humid areas in Mexico hotels.  If you don't mind the lobby and hallway smell, the room itself is great and for their rates, it is a great deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>AGM_Carrie_Lee, General Manager at Comfort Suites Near Northeast Mall, responded to this reviewResponded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2016</t>
+  </si>
+  <si>
+    <t>The rate of the hotel is good enough that I would stay here again on a short trip.  The room was very nice for a budget hotel.  The beds were fine, the bathroom was nice.  Nothing at all wrong with the room itself.  The breakfast area was very good for a budget hotel.  The thing that turned me off is that the hotel lobby and hallways smell terrible.  In the lobby, they have some sort of fragrance trying to mask the odor.  The rest of the hotel just smells bad.  It reminds me of the musty smell you get from humid areas in Mexico hotels.  If you don't mind the lobby and hallway smell, the room itself is great and for their rates, it is a great deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r402036087-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>402036087</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Sheets were not clean</t>
+  </si>
+  <si>
+    <t>On July 25, 2016, I checked into my room and noticed what appeared to be "old sperm" in center of the bed sheets.  Hotel staff took pictures and changed the sheets.  I contacted customer services after failed attempts to contact management. Bad experience!  I took a picture also.MoreShow less</t>
+  </si>
+  <si>
+    <t>On July 25, 2016, I checked into my room and noticed what appeared to be "old sperm" in center of the bed sheets.  Hotel staff took pictures and changed the sheets.  I contacted customer services after failed attempts to contact management. Bad experience!  I took a picture also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r397002915-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>397002915</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Great hotel and great location</t>
+  </si>
+  <si>
+    <t>Needed a place to stay when the AC went out. Got a reservation on short notice. Property in good location on service road.  Quiet location near the mall within 10 minutes to northeast mall.  Room was extremely clean. Breakfast among better quality with sausage, eggs, biscuits, etc.  Would highly recommend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r384633659-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>384633659</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean,quiet,comfortable well maintained. We came for a business trip for my husband and I had free days. Exercise room well equipped. Good free breakfast. Courteous staff. Would highly recommend   Lots of food and shopping nearby. Great stay place for families as much to do in area. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r374305449-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
@@ -309,9 +513,6 @@
     <t>Easy in/out. Nice folks at front desk. The were able to recommend places to eat near by.Extra large room, frig in room, coffee pot in room. But no safe.soft comfy bed, extra pillows. Nice Indoor pool, Hot tub, small cardio only weight room."Happy Hour" weekday afternoons (free beer &amp; wine) chips and salsa. Fair free breakfast. Well light parking area.</t>
   </si>
   <si>
-    <t>michaeltK5545TF</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r365512724-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -330,9 +531,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>pat c</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r365030292-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -351,9 +549,6 @@
     <t>When we walked into the room the first day, we were thrilled! The room was about 650 square feet- quite large in comparison to many hotel rooms. It really was a suite. The first area has a nice wood table in front of a sofa bed. Nice classy tables, bed, and lamps. The bathroom was rather large- lots of room to move about. The bathroom had marble throughout- making it look more like a four star property. Everything was clean and well- maintained. The wood cabinet that held the microwave and refrigerator was very nice. It had a curved front door hiding the refrigerator. It also had 3 large curved drawers. All in all- we enjoyed Comfort Suites and are glad we read the great reviews and stayed there.More</t>
   </si>
   <si>
-    <t>ohiolioness</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r361177344-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -372,7 +567,88 @@
     <t>The hotel itself is beautiful.  However, it is located 20 minutes north east of Fort Worth and about 20 minutes north of Arlington.  Our GPS could not find using Richland Hills or Fort Worth. We had to call the hotel to find out its actually located in Hurst, TX.  We drove around for almost an hour at night trying to find it.  Secondly, We called the hotel to see if we could arrive after 2am.  They stated it would not be a problem.  We arrived at 2:55am and were told we almost missed the cut off.  Basically if we were not there by 3am we wouldn't have  been able to check in.  So as you can see this already put a  bad taste in my mouth.  The  rooms are big and spacious.  The breakfast is average.  We won't stay here again.More</t>
   </si>
   <si>
-    <t>mary s</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r359384877-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>359384877</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel.</t>
+  </si>
+  <si>
+    <t>Clean rooms, free wifi, free hot breakfast and indoor pool and hot tub.  Breakfast was okay at best, but the room was clean and nice. The kids enjoyed the indoor pool and hot tub. We picked this hotel for its indoor pool so the kids could swim in the cooler weather.  So for families with children, it's a great place. The neighborhood was nice and we didn't have any issues.  The only small problem was the walls are paper thin, so you can easily hear your neighbors.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r356183093-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>356183093</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Awsome hotel and staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is very clean, we requested a room on the top floor and they accommodated us, the room was clean, bathroom as well, we always had clean towels, the staff is great, the clerk at the front desk was very nice and very attentive to what we requeated, the breakfast was good, they have the Texas waffles as well as cereals, and eggs with sides to complement them. The swimming pool was always been kept up. Very close to mall and shopping center. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r353814770-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>353814770</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Very Clean and So Comfy</t>
+  </si>
+  <si>
+    <t>Clean bathroom, almost sparkling clean...loved it.Bed was so comfy. Choice of firm or soft pillows on bed.Could choose daily sheet changes or not...loved it.Very nice staff...especially Annalee at the front desk. So helpful.Nice complimentary breakfast too.Will return!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r352101552-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>352101552</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Surprisingly Nice Stay</t>
+  </si>
+  <si>
+    <t>We had reservations elsewhere and changed at the last minute to stay with our college baseball team.  Rooms were big, clean and comfy.  Big TV, desk area and nice size fridge.  Front desk staff were helpful and accommodating.  AC was great during the day but seemed to throttle back at night - woke up warm.  But overall a really nice surprise!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r347940712-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>347940712</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>We want to give a shout out to BRENDA from the front desk! She was extremely helpful and very friendly. We were having some issues with a transaction that had been placed on my fathers debit card by the hotel and she was able to get the issue resolved within 24 hours of our stay, which could have easily taken 7-10 business days for the issue to be resolved (We stayed for a week). Nowadays it can be difficult to come across good customer service and Brenda was able to provide us with EXCELLENT customer service! The hotel was also very clean, stocked with plenty of towels (If you need toiletries just ask!), room was roomy, complimentary breakfast was included (decent), good wi-fi,  and a good bang for your buck if you need a place to stay when in town!MoreShow less</t>
+  </si>
+  <si>
+    <t>We want to give a shout out to BRENDA from the front desk! She was extremely helpful and very friendly. We were having some issues with a transaction that had been placed on my fathers debit card by the hotel and she was able to get the issue resolved within 24 hours of our stay, which could have easily taken 7-10 business days for the issue to be resolved (We stayed for a week). Nowadays it can be difficult to come across good customer service and Brenda was able to provide us with EXCELLENT customer service! The hotel was also very clean, stocked with plenty of towels (If you need toiletries just ask!), room was roomy, complimentary breakfast was included (decent), good wi-fi,  and a good bang for your buck if you need a place to stay when in town!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r343541111-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
@@ -393,9 +669,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Jeanne M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r341065536-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -418,9 +691,6 @@
   </si>
   <si>
     <t>The room was comfortable.  I was supposed to have a King room, but the front desk was unable to change the reservation (needed manager's approval), but they were courteous.  The bedspread on one of the beds either had blood or red stain on it.More</t>
-  </si>
-  <si>
-    <t>xdrubin</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r339960600-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
@@ -448,9 +718,6 @@
 The bad - it is sort of isolated and only a Denny's and KFC are within reasonable walking distance. You can purchase some microwavable items and other items to eat from the canteen. The chair in the room wobbled considerably and did not hold height.  The replacement sat low to...I visited on business and would traveling with someone so I booked a place close to him that advertised a free shuttle.  Much to my chagrin, when I called at 6:55 pm for a pick up, I was told the shuttle only operates from 7 AM to 7 PM.  It was a $35 taxi ride even though it said it was about 8.5 miles from DFW.  They could not tell me if the Super Shuttle went to their place which may have been a bit less but this is the first Choice Hotel that I have stayed at in 10 yrs of traveling that did not have a shuttle 24/7.The good - very nice &amp; spacious rooms, comfortable bedding, lots of accessible outlets for computers &amp; phones. Nice people.  The breakfast was good with real scrambled eggs, good biscuits &amp; gravy, bacon sausage cheese and the usual packaged oatmeal, cereals, coffee, yogurt, fruit, etc.  The also have a Happy hour from 5-6:30 with free beer, wine snacks and a large screen TV.  Workout room has treadmill, weight machines and a TV.  A family Putt-Putt facility is within walking distance.The bad - it is sort of isolated and only a Denny's and KFC are within reasonable walking distance. You can purchase some microwavable items and other items to eat from the canteen. The chair in the room wobbled considerably and did not hold height.  The replacement sat low to the desk. I am a platinum member of Choice Privileges but did not get an in paper or receipt delivered. No big deal, but ......More</t>
   </si>
   <si>
-    <t>TravelbeeSantaFe_NM</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r337349948-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -469,15 +736,9 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Suite-like rooms with microwave and refrigerator, great for spreading out. The front desk clerks were amazingly helpful. We were stranded for two nights due to weather, and the first night the clerk found us the closest car rental company about 1 a.m. when we checked in (turned out driving was not an option). The next night the clerk recommended a Chinese restaurant to deliver in as the winds were howling and the sleet was falling. Last day the desk clerk offered to have the shuttle driver take us to nearby mail if we got bored until nighttime flight time. Indoor pool and hot tub and small fitness center. Breakfast typical of these places and closes promptly on the minute. Two complaints, which is why it is not five star: the free shuttle does not run on the weekends and the ceilings are such that one can hear footfalls above. So, just book the top floor and settle in for a quiet lovely rest surrounded my a great and welcoming staff. I would definitely stay here again as the price was better than lodges closer to the airport. It is about 20-25 minutes away.More</t>
   </si>
   <si>
-    <t>Travelinghockey... D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r316389164-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -496,9 +757,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Vision293</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r307011693-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -526,9 +784,6 @@
     <t>This hotel ranks among one of my favorites. Not only is it in an ideal location off the expressway, eateries are all around and if you just want to hang out they have very nice after 5 complimentary finger food and drink session. Staff is super especially ask for Linglay (sorry if I spelled your name wrong). She is super and ready to meet your needs, Also there are a couple more I forgot their names, but were great as well. Breakfast was on point, nice swimming pool and Jacuzzi area, workout facility was nice as well. Now to the rooms? All I have to say is awesome, yes smell great, clean and you can tell they take their time to insure the ROOM is clean and dusted. I stayed here and extra couple days even though it was about 20 minutes out the way of my meetings and other gatherings. It was well worth it and will definitely be back. All Comfort Suites are not the same and this is definitely proof of that. Stay here and you will not be disappointing, If you know me by now I call it like I see it! Great job guys keep the standards high.More</t>
   </si>
   <si>
-    <t>jgumms</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r301686848-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -547,9 +802,6 @@
     <t>Convenient to everything including highways and DFW airport. Free shuttle. Nothing open after 10 except for Bar Louie's, (cool place, nice patio), next to the movie theatre at the mall a short drive away. Breakfast only until 9. Cool waffle maker makes them in the shape of TEXAS! All lights are dim and yellow makes for dark rooms! King rooms are small, judging from diagram doubles are larger. Reception weekday afternoons/early evenings which is nice. Snacks, beer and wine, not much in the way of soft drinks. Nice TV selection although remote is very squirrely. Seems La Quinta, which shares the parking lot, has the same owners. Pretty quick internet too! Only 1 elevator and 2 luggage carts which are gone most of the time. Indoor pool and hot tub stay pretty busy.More</t>
   </si>
   <si>
-    <t>Bryan B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r291595529-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -568,9 +820,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>renjen06</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r285155385-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -586,9 +835,6 @@
     <t>I really enjoyed myself staying here with my family. Very clean and stocked. They had an hour of finger foods and a pitcher  of wine and beer in the evening. Near a mall and food.Good night's rest after swimming.</t>
   </si>
   <si>
-    <t>517beth</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r273218356-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -607,9 +853,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>genealogygail</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r270446302-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -625,9 +868,6 @@
     <t>One of the most helpful staffs that we have come across.  From our first encounter with Cliff on the phone for directions to both of the young ladies that worked at the counter.  They were so helpful in guiding us to the places we wanted to see and to tell us of great places to eat</t>
   </si>
   <si>
-    <t>advocon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r267620644-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -646,9 +886,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>Kim J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r257501437-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -667,9 +904,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>bill h</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r250227048-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -691,9 +925,6 @@
     <t>absolutely the very best customer service i have received at any hotel anywhere.  they were at capacity and cliff, thomas, and meagan gave each person their undivided attention every instance i saw.  i am directionally challenged  so cliff basically walked me in to the hotel while i was on my cell phone.   thomas got a call from me for some late night snack help.  he said dominoes might still deliver, they did not.  he did find some pizza rolls and bought them to my room apologizing all the time.   he did not have to do that.  meagan should be the example everyone at comfort inn and suites should have to listen to.  always busy doing something, very cordial to everyone from 9-90 yrs old.  (was a youth hockey tournament in town and a hotel full of kids running around.)    all in all i will be staying at this location again if i am in the area.More</t>
   </si>
   <si>
-    <t>mshayneturner</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r249159843-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -715,9 +946,6 @@
     <t>I travel to the Fort Worth area about 2 to 3 times per year.  I have been staying at this hotel each time for several years.  The rate is reasonable, the rooms are clean and comfortable, and the staff is always friendly.  I especially look forward to seeing Cliff, because he is always so friendly and engaging.  I have never had a problem staying here.  They seem to place their guests in high regard.  Last year I had bronchitis and had to stay in the hotel for over 3 weeks.  They were extremely accommodating.  The hotel is located off the freeway and is fairly quiet.  It seems to be in a decent part of town within walking distance to the Northeast Mall and several restaurants, as well as easy access to all the major highways in the area.  Breakfast in the dining area is good, and they offer frozen meals and beverages for purchase for those late-night hunger pangs.More</t>
   </si>
   <si>
-    <t>kdwait</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r247891182-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -736,9 +964,6 @@
     <t>We stayed one night at this property and have no problems recommending this hotel. It has been updated nicely and the staff was very friendly and helpful in advising close by restaurants for dinner.  The room was spacious and clean. The linens on our bed were worn and not comfortable to sleep on-but the kids said their sheets were fine. Plenty of soft fluffy towels were provided. There were plenty of outlets and chargers in the room for phones, laptops and Kindle's. Breakfast was good and the area was adequate. There are plenty of restaurants and shopping very close. I followed the advice of another reviewer and entered the address as Hurst, Texas for GPS purposes and had no difficulties finding the hotel.More</t>
   </si>
   <si>
-    <t>Tana Beth B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r245980106-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -754,9 +979,6 @@
     <t>The staff was super friendly, helpful and patient.  The breakfast was good and we will stay there again when we return to texas.  Good price for what you get also. more upscale than La Quinta, no pets. no smoking.</t>
   </si>
   <si>
-    <t>Mjaj2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r245735827-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -772,9 +994,6 @@
     <t xml:space="preserve">Thanks you Cliff for a wonderful greeting and stay. Your warm, personable, friendly service made our stay rememberable. You are very polite (your mother would be very proud) and your directions got us to the right place without any problems. We will stay here again. Merry CHRISTmas.  </t>
   </si>
   <si>
-    <t>Donna M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r237299767-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -796,9 +1015,6 @@
     <t>Rooms were updated and large.  Beds comfy.  But  the doors are heavy and tend to slam.  Our bathroom door was not well hung and would swing in to the bathtub.  Instead of rehanging the door, they put a doorstop into the bathroom floor that blends in with the floor and is right in front of the tub.  I stubbed my toe each time I got in to bathe!  We stayed 3 nights and one day the maid left no coffee and the next day she didn't even clean the room!  Breakfast had some appreciated goodies, cinnamon raisin bagels and peach and cherry yogurts. There was a live bug in the glass salt shaker and the employee dumped and refilled the container, but did not clean the very dirty shaker.More</t>
   </si>
   <si>
-    <t>Huds8</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r235212916-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -817,9 +1033,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>Canfamily_9</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r232797856-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -835,19 +1048,19 @@
     <t>The first thing you need to know is the listed hotel address does not exist.  You will not find it with your GPS or on any map application.  It is actually located in Hurst, TX.  Anyhoo, we stayed at this hotel to go to Six Flags.  It was about 20 min. away.  Awesome hotel!  Very clean.  Excellent staff!  Warm, clean, indoor pool.  Breakfast better than average.  Would stay here again!</t>
   </si>
   <si>
-    <t>Traverler1515</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r229208873-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
     <t>229208873</t>
   </si>
   <si>
-    <t>September 16, 2014</t>
-  </si>
-  <si>
-    <t>MarvinB777</t>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Clean,comfortable &amp; quiet</t>
+  </si>
+  <si>
+    <t>Room was everything you expect from a quality hotel.  Clean room, plenty of towels, all the modern amenities and very quiet room.   Microwave and small refrigerator are often overlooked by housekeeping, but not here, very thorough.  Breakfast included, pretty standard stuff in that department.  Overall great experience.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r211866203-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
@@ -871,9 +1084,6 @@
     <t>This was a very positive experience. I've stayed a other hotels in the area but found this to be best suited for my needs and in the price range I wanted. The room was in great shape, newer furnishings, good bed and bedding. The people serving at the front desk were great to work with and went the extra mile to help provide a meeting room. One of the greatest advantages for me was that they provided shuttle service both to and from DFW. This saved me from renting a car since I had transportation to and from local meetings. Price was very good. An added benefit was the hot hors d'oeuvre served one of the evenings. Nice room - nice folks! I'd definitely use them again.More</t>
   </si>
   <si>
-    <t>rrfh1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r210739670-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -889,9 +1099,6 @@
     <t>Super nice hotel in an older section of Dallas.  The hotel is very modern, super clean, accessible to the Richard Hills Mall and lots of restaurants.  The staff was very friendly and helpful.  The hotel is about 30 minutes from the AT&amp;T stadium if traffic is moving at a good pace.  If you're on a tighter schedule, give yourself plenty of time to arrive as traffic in Dallas does tend to back up.</t>
   </si>
   <si>
-    <t>yvonner123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r209146818-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -907,9 +1114,6 @@
     <t>This hotel was extremely clean, very nicely decorated and very conveniently located. This was our first stay and we couldn't have been more pleased.  The breakfast area was clean, very extensive selection of food. The front desk manager, Cliff was outstanding!  He used our names, remembered details and dressed very professionally.  I requested a shower cap and Cliff went to another hotel across the parking lot to get me one as they were out - he didn't settle for "sorry, we're out".  This is the only hotel we'll stay at when visiting Dallas/Fort Worth.</t>
   </si>
   <si>
-    <t>BCNDWorld</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r202128598-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -937,9 +1141,6 @@
     <t>This was a surprisingly pleasant experience. After dealing with, what I felt was terrible service from Choice corporate, and so-so response from the hotel management, when I arrived the personnel were very cordial and really made for a great experience as far as hotels are concerned. The hotel is either newer or recently remodeled and it’s nice especially for the price. Pool, workout room, big breakfast area, great staff, I liked everything about this hotel. . . once I arrived. The food was better than average, the room was nicely decorated, clean, and updated. I prepaid at the cheaper rate and then wanted to change the date about 3 days later and move it out 1 week. They had plenty of availability but would prefer losing the customer to simply moving the date out. Granted their support is done overseas, but there is an art to telling customers, “We have your money so sorry about your screw up Buddy”, which they don’t have. I dealt with several people, then I was put on infinite hold or they just moved on. Really left me irritated.More</t>
   </si>
   <si>
-    <t>mopena14</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r195238616-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -958,9 +1159,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>JNCrum</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r193114546-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -997,9 +1195,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>Gerald C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r189993323-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1015,7 +1210,97 @@
     <t>Extremly nice hotel check in was very quick room very nice and clean would highly recommend if you are in this area book a room here you will not be disappointed. Easy access to loop 820 about 10 miles from AT &amp; T Stadium Mall across the street.</t>
   </si>
   <si>
-    <t>Mike K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r186950326-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>186950326</t>
+  </si>
+  <si>
+    <t>12/06/2013</t>
+  </si>
+  <si>
+    <t>Nice rooms, good breakfast</t>
+  </si>
+  <si>
+    <t>We stayed here with family over the Thanksgiving weekend. We had two nice rooms. We used the hot tub and the exercise room. Pool was heated but a little chilly (because it is a pool not a hot tub). We saved $5 or $10 by prepaying the full balance with a Choice frequently customer program. Checking in was a breeze. The rates were very reasonable and the rooms were very nice and very clean. One odd thing was that housekeeping threw away our soaps every day. I guess it was extra clean that way but it seemed a little wasteful. The wi-fi was fast and convenient and free. The breakfast was nice with a good variety. We giggled about the Texas shaped waffles, that was cute. The selection was nice and they were busy restocking all through breakfast even when the whole boys hockey team was there. A look at Google street view helped with the location of the driveway between LA Fitness and the furniture store. Even though the hotel is on a one way service road for 820 Loop, there is a driveway behind LA Fitness that leads to Glenview/Pipeline Road. The mall entrance is about half a mile east. Lots of stores and restaurants in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>We stayed here with family over the Thanksgiving weekend. We had two nice rooms. We used the hot tub and the exercise room. Pool was heated but a little chilly (because it is a pool not a hot tub). We saved $5 or $10 by prepaying the full balance with a Choice frequently customer program. Checking in was a breeze. The rates were very reasonable and the rooms were very nice and very clean. One odd thing was that housekeeping threw away our soaps every day. I guess it was extra clean that way but it seemed a little wasteful. The wi-fi was fast and convenient and free. The breakfast was nice with a good variety. We giggled about the Texas shaped waffles, that was cute. The selection was nice and they were busy restocking all through breakfast even when the whole boys hockey team was there. A look at Google street view helped with the location of the driveway between LA Fitness and the furniture store. Even though the hotel is on a one way service road for 820 Loop, there is a driveway behind LA Fitness that leads to Glenview/Pipeline Road. The mall entrance is about half a mile east. Lots of stores and restaurants in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r183896036-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>183896036</t>
+  </si>
+  <si>
+    <t>11/07/2013</t>
+  </si>
+  <si>
+    <t>The staff at this hotel are exceptional!  They do everything in their power to make guests happy.  Could never say enough about them, especially Cliff and Lynnlee.   Love Them!!  Rooms were very comfortable and clean.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r182030467-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>182030467</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>Delightful experiences at this hotel.</t>
+  </si>
+  <si>
+    <t>I just realized the other day, that it has been five years since I discovered this particular Comfort Suites in Richland Hills..I travel with my work, and I am frequently in the Ft Worth area--I would not consider staying at any other hotel--even if I had a shorter driving distance...this particular hotel is spotlessly clean, the entire staff is friendly-to the point that when I enter the lobby, I am called by name, the breakfast buffet is filling and fresh always..I always know that when I stay here, I'll get a very good nights sleep and I feel that I am well cared for-I must recommend this hotel to anyone that travels to this area..I promise you that you'll never be disappointed-that starts with the big Texas greeting waiting as you enter..MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I just realized the other day, that it has been five years since I discovered this particular Comfort Suites in Richland Hills..I travel with my work, and I am frequently in the Ft Worth area--I would not consider staying at any other hotel--even if I had a shorter driving distance...this particular hotel is spotlessly clean, the entire staff is friendly-to the point that when I enter the lobby, I am called by name, the breakfast buffet is filling and fresh always..I always know that when I stay here, I'll get a very good nights sleep and I feel that I am well cared for-I must recommend this hotel to anyone that travels to this area..I promise you that you'll never be disappointed-that starts with the big Texas greeting waiting as you enter..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r180251784-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>180251784</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel since the day the have opened. I have stayed at this location for about 5 months out of the year off and on. Mel with his friendly staff have been just the best. They make sure that My company and our employees are well taken care of. I would highly recommend this Hotel to any bussines travelers or even family vacation.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r180077368-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>180077368</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Great Hotel! Warm, comforting lobby, great staff, breakfast was great and room was awesome. Would definitely recommend this property to family/friends in the area. It is very evident that the GM and hotel staff care for this hotel and their guests staying there.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r179773362-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
@@ -1033,15 +1318,9 @@
     <t>I am a business traveler so I spend 80-100 nights per year in a hotel.  I guess you would say it's my home away from home.  I have been staying at this Comfort Suites since 2009 when they opened.  I was very impressed right from the start.  Mel, the GM, was very professional and helpful since the beginning.  Most of the front desk clerks have been with Mel since day one which is a good sign.  I can easily say that this isn't only my favorite Comfort Suites hotel, but my favorite hotel period.  I haven't had one issue with this hotel or Mel over the 4 years that I have been staying here.  They have a nice indoor pool, nice clean rooms, decent business center, and a happy hour which isn't offered at most Comfort Suites.  Someone had suggested this to Mel a few years ago and he agreed it was a good idea and implemented it.  When I'm on business I can stay at any hotel up to $200.  I choose to stay here because they treat me as well or better then any $200 hotel.  The front desk clerks are always professional and friendly...Cliff and Thomas are awesome.  I even stay at this hotel when I have business on the other side of town.  I would rather stay at this hotel and drive a little longer in the morning.....it's that good.   I have also stayed at this...I am a business traveler so I spend 80-100 nights per year in a hotel.  I guess you would say it's my home away from home.  I have been staying at this Comfort Suites since 2009 when they opened.  I was very impressed right from the start.  Mel, the GM, was very professional and helpful since the beginning.  Most of the front desk clerks have been with Mel since day one which is a good sign.  I can easily say that this isn't only my favorite Comfort Suites hotel, but my favorite hotel period.  I haven't had one issue with this hotel or Mel over the 4 years that I have been staying here.  They have a nice indoor pool, nice clean rooms, decent business center, and a happy hour which isn't offered at most Comfort Suites.  Someone had suggested this to Mel a few years ago and he agreed it was a good idea and implemented it.  When I'm on business I can stay at any hotel up to $200.  I choose to stay here because they treat me as well or better then any $200 hotel.  The front desk clerks are always professional and friendly...Cliff and Thomas are awesome.  I even stay at this hotel when I have business on the other side of town.  I would rather stay at this hotel and drive a little longer in the morning.....it's that good.   I have also stayed at this hotel when coming up with my girlfriend for a weekend getaway.  If I could give this more than 5 stars I would.  I stay at hotels all over the country and this is by far my favorite.  I always look forward to seeing Mel and the front desk clerk when I arrive.  Mel always makes time to chat with me when I arrive and leave.  As far as the negative comments that were posted from a few people on here, I wouldn't pay too much attention.  Most of the hotels that I stay at don't let you pay cash without a deposit because you could damage the room and they have no repercussions. I have never seen the GM, Mel, be rude to a guest or employee in the 4 years that I have been staying here.  I  honestly cannot think of anything negative to say about this hotel......just one word......AWESOME!!!      Mike KatzMoreShow less</t>
   </si>
   <si>
-    <t>October 2013</t>
-  </si>
-  <si>
     <t>I am a business traveler so I spend 80-100 nights per year in a hotel.  I guess you would say it's my home away from home.  I have been staying at this Comfort Suites since 2009 when they opened.  I was very impressed right from the start.  Mel, the GM, was very professional and helpful since the beginning.  Most of the front desk clerks have been with Mel since day one which is a good sign.  I can easily say that this isn't only my favorite Comfort Suites hotel, but my favorite hotel period.  I haven't had one issue with this hotel or Mel over the 4 years that I have been staying here.  They have a nice indoor pool, nice clean rooms, decent business center, and a happy hour which isn't offered at most Comfort Suites.  Someone had suggested this to Mel a few years ago and he agreed it was a good idea and implemented it.  When I'm on business I can stay at any hotel up to $200.  I choose to stay here because they treat me as well or better then any $200 hotel.  The front desk clerks are always professional and friendly...Cliff and Thomas are awesome.  I even stay at this hotel when I have business on the other side of town.  I would rather stay at this hotel and drive a little longer in the morning.....it's that good.   I have also stayed at this...I am a business traveler so I spend 80-100 nights per year in a hotel.  I guess you would say it's my home away from home.  I have been staying at this Comfort Suites since 2009 when they opened.  I was very impressed right from the start.  Mel, the GM, was very professional and helpful since the beginning.  Most of the front desk clerks have been with Mel since day one which is a good sign.  I can easily say that this isn't only my favorite Comfort Suites hotel, but my favorite hotel period.  I haven't had one issue with this hotel or Mel over the 4 years that I have been staying here.  They have a nice indoor pool, nice clean rooms, decent business center, and a happy hour which isn't offered at most Comfort Suites.  Someone had suggested this to Mel a few years ago and he agreed it was a good idea and implemented it.  When I'm on business I can stay at any hotel up to $200.  I choose to stay here because they treat me as well or better then any $200 hotel.  The front desk clerks are always professional and friendly...Cliff and Thomas are awesome.  I even stay at this hotel when I have business on the other side of town.  I would rather stay at this hotel and drive a little longer in the morning.....it's that good.   I have also stayed at this hotel when coming up with my girlfriend for a weekend getaway.  If I could give this more than 5 stars I would.  I stay at hotels all over the country and this is by far my favorite.  I always look forward to seeing Mel and the front desk clerk when I arrive.  Mel always makes time to chat with me when I arrive and leave.  As far as the negative comments that were posted from a few people on here, I wouldn't pay too much attention.  Most of the hotels that I stay at don't let you pay cash without a deposit because you could damage the room and they have no repercussions. I have never seen the GM, Mel, be rude to a guest or employee in the 4 years that I have been staying here.  I  honestly cannot think of anything negative to say about this hotel......just one word......AWESOME!!!      Mike KatzMore</t>
   </si>
   <si>
-    <t>Shandond</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r177562271-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1057,9 +1336,6 @@
     <t>To start I called to ask a few questions about hotel. Was told pool was heated (was not), told about all the items for breakfast (were not served).  The night desk person both nights very helpful. Since leaving the hotel I am been harassed by the GM Mel. He has accused me and my family of damaging a sofa. He has called is liars and threatened us.  I would suggest you find somewhere else to stay.</t>
   </si>
   <si>
-    <t>islaforme</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r174398890-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1076,9 +1352,6 @@
   </si>
   <si>
     <t>August 2013</t>
-  </si>
-  <si>
-    <t>travelbear77</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r163382818-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
@@ -1100,9 +1373,6 @@
 This is a much better option than many other NE Tarrant...I have had the opportunity of staying at this hotel many times during the last several months.  I am there on Saturday night, and both of the Saturday evening hosts--Cliff and Thomas--and the usual Sunday morning hostess--Juanita--are models for what front desk personnel at every hotel should be.  Obviously, I am a "regular," but very early on they began to call me by my name, the guys on Saturday evening always have my paperwork ready to sign and always ask if everything is okay when I am in the lobby, and, Juanita is always a cheerful voice on Sunday morning.The suites are very spacious--much more so than even other Comfort Suites and much more so than similar "one room suites" of other chains.The only two problems have been relatively small--they have changed their cable TV service more than once, and there has been no channel listing in their guide (although I expect that will be remedied soon).  And, to their credit, they seem to be very accommodating for weekend groups.  Thankfully, there has never really been a significant noise problem, but it does cause some challenges with the Sunday morning breakfast.  The posted start time is 7:00 a.m. on Sunday, but there are always quite a few people there already.The breakfast is not incredible, but it is typical of this sort of establishment, and much appreciated.This is a much better option than many other NE Tarrant County hotels because of the easy access to I-820, and it is just across the highway from a large mall and many other shops and restaurants.MoreShow less</t>
   </si>
   <si>
-    <t>May 2013</t>
-  </si>
-  <si>
     <t>I have had the opportunity of staying at this hotel many times during the last several months.  I am there on Saturday night, and both of the Saturday evening hosts--Cliff and Thomas--and the usual Sunday morning hostess--Juanita--are models for what front desk personnel at every hotel should be.  Obviously, I am a "regular," but very early on they began to call me by my name, the guys on Saturday evening always have my paperwork ready to sign and always ask if everything is okay when I am in the lobby, and, Juanita is always a cheerful voice on Sunday morning.
 The suites are very spacious--much more so than even other Comfort Suites and much more so than similar "one room suites" of other chains.
 The only two problems have been relatively small--they have changed their cable TV service more than once, and there has been no channel listing in their guide (although I expect that will be remedied soon).  And, to their credit, they seem to be very accommodating for weekend groups.  Thankfully, there has never really been a significant noise problem, but it does cause some challenges with the Sunday morning breakfast.  The posted start time is 7:00 a.m. on Sunday, but there are always quite a few people there already.
@@ -1110,9 +1380,6 @@
 This is a much better option than many other NE Tarrant...I have had the opportunity of staying at this hotel many times during the last several months.  I am there on Saturday night, and both of the Saturday evening hosts--Cliff and Thomas--and the usual Sunday morning hostess--Juanita--are models for what front desk personnel at every hotel should be.  Obviously, I am a "regular," but very early on they began to call me by my name, the guys on Saturday evening always have my paperwork ready to sign and always ask if everything is okay when I am in the lobby, and, Juanita is always a cheerful voice on Sunday morning.The suites are very spacious--much more so than even other Comfort Suites and much more so than similar "one room suites" of other chains.The only two problems have been relatively small--they have changed their cable TV service more than once, and there has been no channel listing in their guide (although I expect that will be remedied soon).  And, to their credit, they seem to be very accommodating for weekend groups.  Thankfully, there has never really been a significant noise problem, but it does cause some challenges with the Sunday morning breakfast.  The posted start time is 7:00 a.m. on Sunday, but there are always quite a few people there already.The breakfast is not incredible, but it is typical of this sort of establishment, and much appreciated.This is a much better option than many other NE Tarrant County hotels because of the easy access to I-820, and it is just across the highway from a large mall and many other shops and restaurants.More</t>
   </si>
   <si>
-    <t>txfam-MEXICO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r162145928-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1141,9 +1408,6 @@
 I was told that I could ONLY pay cash in the morning when we checked out of the room.  Fine.  When I tried to get a receipt, the front desk clerk told me that...As a Choice Hotel Elite traveler, I do not often have the kind of check-in and check-out experience that I encountered when I recently stayed at this Comfort Suites property.  During Memorial Day Weekend, I booked two rooms for one night to attend the Taylor Swift concert in Arlington.  I always pay cash for rooms but hold the rooms with a major credit card.  I have learned that if I don't pay cash while checking in, many hotels will automatically run my credit card for faster check out.  However, the front desk clerk advised me that I was NOT PERMITTED to pay by cash because the owner/GM was concerned that I would steal the TV off the wall or otherwise vandalize the property.  The front desk clerk also advised me that this property was "not like other Comfort Suites" and made it clear that cash-paying guests were scrutinized very carefully.  The clerk had to call the GM TWICE to receive approval for me to pay cash.  This was seriously the most bizarre and most difficult check-in experience I have EVER encountered at a Choice Hotel property.  By the time we got to our rooms, I was stressed out and we were running late to the event.I was told that I could ONLY pay cash in the morning when we checked out of the room.  Fine.  When I tried to get a receipt, the front desk clerk told me that "her system was running slow" and tried two computers to no avail to print a receipt for me.As of this morning, it appears my credit card was charged for both of the rooms.  Awesome.I can say with confidence that we did not vandalize the property nor did we steal any TVs.  I can also boldly say that we will never stay at this Choice Hotel property ever again.  Like ever.More</t>
   </si>
   <si>
-    <t>SeekerofSun</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r159261898-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1159,9 +1423,6 @@
     <t>From the moment we walked into the door of the Comfort Suites, we were treated as special guests. The service and friendliness of the staff was warm and prompt. The hotel was clean in both the rooms and reception areas. We stayed here while visiting our daughter's family in Fort Worth. The location is very good - the airport is close, and lots of shopping and restaurants nearby. We enjoyed the hot breakfasts. We plan to staff here on future visits to the Dallas/Fort Worth area.</t>
   </si>
   <si>
-    <t>KcKansas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r155833826-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1180,9 +1441,6 @@
     <t>I am a frequent business traveler.  I could not tell you how many times the people at the front desk of other hotels have watched me (possibly with amusement) get my bags out of the car and get them and my purse and all of my work related items wrangled up to their front door (usually double doors) hold open the door - get a case in the way to get thru to open the next door and finally make it to the front counter.  Today, as I was taking my suitcases (yep 2 of them) out of the back of my rental car an incredibly sweet and helpful smiling young woman met me at my car and helped me inside with my belongings.  This is a first for me!  (and I stay in hotels about 100 nights per year).  She offered to help me find anything I might need in town.  Even showed me how to get around all the road construction to get somewhere.  SHE IS A GEM!   Oh - yeah - the hotel is stunning as well!More</t>
   </si>
   <si>
-    <t>dcfdue1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r154696086-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1201,9 +1459,6 @@
     <t>I stayed at this hotel March 8-11th.  I was in town on business as well as visiting family.  My first complaint comes when I called the hotel to let them know that I would be checking in late.  In addition, I told them that my daugther would arrive in town ahead of me and would like to check into the hotel.  I asked them if they could let her check in and I would swipe my card when I arrive.  However, the desk clerk told me that he would not be able to do it.  I informed him that they already had my card on file and I would be arriving in a couple of hours.  He then told me that he would have the front desk clerk Juanita call me when she arrived in 5 minutes.  I never received a call from her so I called the hotel back.  Juanita told me that she never received a message from the other front desk clerk to call me.  Well with all of that being said, she was very nice and she told me that she would let my daughter check in upon arrival.  Juanita was very nice.  The second and third complaint comes from all of the noise at night in the room above me and also from the room across the hall.  I had a very important meeting Monday mornign and was not able to go to sleep until...I stayed at this hotel March 8-11th.  I was in town on business as well as visiting family.  My first complaint comes when I called the hotel to let them know that I would be checking in late.  In addition, I told them that my daugther would arrive in town ahead of me and would like to check into the hotel.  I asked them if they could let her check in and I would swipe my card when I arrive.  However, the desk clerk told me that he would not be able to do it.  I informed him that they already had my card on file and I would be arriving in a couple of hours.  He then told me that he would have the front desk clerk Juanita call me when she arrived in 5 minutes.  I never received a call from her so I called the hotel back.  Juanita told me that she never received a message from the other front desk clerk to call me.  Well with all of that being said, she was very nice and she told me that she would let my daughter check in upon arrival.  Juanita was very nice.  The second and third complaint comes from all of the noise at night in the room above me and also from the room across the hall.  I had a very important meeting Monday mornign and was not able to go to sleep until after 12 midnight.  I had to call the front desk twice to have them ask the people to be courteous of other hotel guest.  The people across the hall were letting their 3 children, ages ranging from 9 and under run up and down the hall slamming doors at 11:30p.m at night.  The front desk clerks were nice, with the exception of the gentleman who did not deliver the message and could not help me with my request.  The hotel is very nice and clean with ok breakfast.More</t>
   </si>
   <si>
-    <t>MarshallR</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r153459580-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1225,9 +1480,6 @@
     <t>I am a frequent guest at Choice Hotels and this property ranks very high on my list of Comfort Suites. The rooms are quite large and have plenty of room to do any last minute work or just relax.  When entering the hotel you are greeted by friendly employees (Thomas to name just one).  The exterior of the hotel and the common areas are neat and clean.  All of the staff that I had contact with were very friendly and helpful.  Be sure to enjoy the reception that the hotel hosts most week nights. The hotel is close to a large shopping mall and there are many restaurants within a mile or less of the hotel.  The hotel is not the easiet to find but once you get there , I'm sure that you will enjoy your stay.More</t>
   </si>
   <si>
-    <t>country_kris</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r153346113-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1246,7 +1498,199 @@
     <t>As a Choice employee, I tend to be a little harsher when it comes to travel, but this hotel surpassed my expectations ten-fold.  Great, clean, inviting room with comfy beds and extra bedding in closet in case it is needed.  When we checked in, Cliff at the front desk took great care of us. Quick, easy, friendly checkin. It's amazing what a simple smile does when you walk in the door.  Also, Juanita, who re-did our keys at night and checked us out in the morning was a great way to start the morning. Smiling, friendly, efficient and super helpful.  You have a wonderful staff on site, and well trained as well.Breakfast the next morning was MORE than I needed to get the day started, and well kept.  If you are coming through Hurst and need a great hotel for one night, this is DEFINITELY the hotel to choose :)More</t>
   </si>
   <si>
-    <t>marshaw446</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r149531160-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>149531160</t>
+  </si>
+  <si>
+    <t>01/12/2013</t>
+  </si>
+  <si>
+    <t>This was a above average Comfort Suites.  The service was excellent! Each time I would walk by, the employees at the front desk would would greet me.The rooms were huge. Both of the queen beds were soft and clean which allowed me to get a good nights sleep.  The hotel was quiet, which I really appreciated.I recommend this hotel to anyone who is in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r149393598-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>149393598</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>Blown Away By the Hospitality!!</t>
+  </si>
+  <si>
+    <t>I stayed here for one night and not being familiar with the brand I wasn't sure what to expect.  However, I have repeated the story of my experience here already to several people because I was to taken back by the genuine hospitality that every person gave to me that worked there.  My experience started by being greeted at DFW by the Shuttle Service driver, Richard.  He was waiting for me as I approached the baggage claim area and had a sign with my name on it!  I was expecting to have to search for him.  I was wrong.  I loved my ride to the hotel because Richard and I had a great conversion.  I felt like I was chatting with an old friend.  As Richard walked me and my luggage into the hotel, I was immediately greeted by the Front Desk Agent, Cliff.  He used my name the moment I walked in!  The room was spacious and clean.  The TV was hard to flip through channels, but I wasn't staying there for the TV.  The fitness center was pretty small and the treadmill was not easy to use, but again I wasn't staying there to use the treadmill.  The next morning, I grabbed a bite to eat at their free breakfast.  A nice variety to choose from and off course plenty of coffee.  Before I left for work that morning I inquired about using the Shuttle Service to get...I stayed here for one night and not being familiar with the brand I wasn't sure what to expect.  However, I have repeated the story of my experience here already to several people because I was to taken back by the genuine hospitality that every person gave to me that worked there.  My experience started by being greeted at DFW by the Shuttle Service driver, Richard.  He was waiting for me as I approached the baggage claim area and had a sign with my name on it!  I was expecting to have to search for him.  I was wrong.  I loved my ride to the hotel because Richard and I had a great conversion.  I felt like I was chatting with an old friend.  As Richard walked me and my luggage into the hotel, I was immediately greeted by the Front Desk Agent, Cliff.  He used my name the moment I walked in!  The room was spacious and clean.  The TV was hard to flip through channels, but I wasn't staying there for the TV.  The fitness center was pretty small and the treadmill was not easy to use, but again I wasn't staying there to use the treadmill.  The next morning, I grabbed a bite to eat at their free breakfast.  A nice variety to choose from and off course plenty of coffee.  Before I left for work that morning I inquired about using the Shuttle Service to get me back to the airport if I couldn't find another way to get there.  She suggested that I call if I needed a ride.  Of course I did and Cliff assisted me over the phone with arranging my transportation to DFW.  He even called me back later to confirm the time and to assure me the drive would be there.  Cliff called me again to let me know when the drive was at the location to pick me up.  Then I was pleasantly greeted by Bill, the Shuttle Driver.  To be honest, I was disappointed it wasn't Richard!  Well, Bill was just as amazing as Richard.  We talked the entire drive and he shared information about some of the places we drove by.  Its probably safe to say this hotel is not Four Diamond.  But the level of service that I received from EVERY associate that I encountered was off the charts.  Because of Richard, Bill and Cliff - I hope I have a reason to come stay at this hotel again.  You can teach someone to check you in, answer a phone or drive a vehicle, but you can't teach someone to be kind and genuine.  The staff at Comfort Suites were the best part of my stay.  Keep up the great work and please make sure that your staff knows how FANTASTIC they are!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for one night and not being familiar with the brand I wasn't sure what to expect.  However, I have repeated the story of my experience here already to several people because I was to taken back by the genuine hospitality that every person gave to me that worked there.  My experience started by being greeted at DFW by the Shuttle Service driver, Richard.  He was waiting for me as I approached the baggage claim area and had a sign with my name on it!  I was expecting to have to search for him.  I was wrong.  I loved my ride to the hotel because Richard and I had a great conversion.  I felt like I was chatting with an old friend.  As Richard walked me and my luggage into the hotel, I was immediately greeted by the Front Desk Agent, Cliff.  He used my name the moment I walked in!  The room was spacious and clean.  The TV was hard to flip through channels, but I wasn't staying there for the TV.  The fitness center was pretty small and the treadmill was not easy to use, but again I wasn't staying there to use the treadmill.  The next morning, I grabbed a bite to eat at their free breakfast.  A nice variety to choose from and off course plenty of coffee.  Before I left for work that morning I inquired about using the Shuttle Service to get...I stayed here for one night and not being familiar with the brand I wasn't sure what to expect.  However, I have repeated the story of my experience here already to several people because I was to taken back by the genuine hospitality that every person gave to me that worked there.  My experience started by being greeted at DFW by the Shuttle Service driver, Richard.  He was waiting for me as I approached the baggage claim area and had a sign with my name on it!  I was expecting to have to search for him.  I was wrong.  I loved my ride to the hotel because Richard and I had a great conversion.  I felt like I was chatting with an old friend.  As Richard walked me and my luggage into the hotel, I was immediately greeted by the Front Desk Agent, Cliff.  He used my name the moment I walked in!  The room was spacious and clean.  The TV was hard to flip through channels, but I wasn't staying there for the TV.  The fitness center was pretty small and the treadmill was not easy to use, but again I wasn't staying there to use the treadmill.  The next morning, I grabbed a bite to eat at their free breakfast.  A nice variety to choose from and off course plenty of coffee.  Before I left for work that morning I inquired about using the Shuttle Service to get me back to the airport if I couldn't find another way to get there.  She suggested that I call if I needed a ride.  Of course I did and Cliff assisted me over the phone with arranging my transportation to DFW.  He even called me back later to confirm the time and to assure me the drive would be there.  Cliff called me again to let me know when the drive was at the location to pick me up.  Then I was pleasantly greeted by Bill, the Shuttle Driver.  To be honest, I was disappointed it wasn't Richard!  Well, Bill was just as amazing as Richard.  We talked the entire drive and he shared information about some of the places we drove by.  Its probably safe to say this hotel is not Four Diamond.  But the level of service that I received from EVERY associate that I encountered was off the charts.  Because of Richard, Bill and Cliff - I hope I have a reason to come stay at this hotel again.  You can teach someone to check you in, answer a phone or drive a vehicle, but you can't teach someone to be kind and genuine.  The staff at Comfort Suites were the best part of my stay.  Keep up the great work and please make sure that your staff knows how FANTASTIC they are!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r146207001-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>146207001</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Amazing accessible rooms</t>
+  </si>
+  <si>
+    <t>Getting a wheelchair accessible room is always a gamble. Some are great, while others think a few grabbars are enough. This room is the best that I have ever stayed in. The room itself is very spacious with plenty of room to maneuver in. The clothes rack was lower and easy to reach, the dresser drawers were feather light to open. The desk was the perfect height. But the bathroom was the best of all. Lots and lots of room to maneuver the chair in, with space free next to the toilet and in front of the tub. There was more than enough room for two and a wheelchair without banging your shins. The only drawback was that there was no shower chair or flip down seat. Luckily, we travel with ours. The staff was very friendly and outgoing, and the breakfast was hearty and filling.MoreShow less</t>
+  </si>
+  <si>
+    <t>Getting a wheelchair accessible room is always a gamble. Some are great, while others think a few grabbars are enough. This room is the best that I have ever stayed in. The room itself is very spacious with plenty of room to maneuver in. The clothes rack was lower and easy to reach, the dresser drawers were feather light to open. The desk was the perfect height. But the bathroom was the best of all. Lots and lots of room to maneuver the chair in, with space free next to the toilet and in front of the tub. There was more than enough room for two and a wheelchair without banging your shins. The only drawback was that there was no shower chair or flip down seat. Luckily, we travel with ours. The staff was very friendly and outgoing, and the breakfast was hearty and filling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r143308745-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>143308745</t>
+  </si>
+  <si>
+    <t>10/20/2012</t>
+  </si>
+  <si>
+    <t>Business stay? AOK!</t>
+  </si>
+  <si>
+    <t>This is a new hotel. Clean and well run. Shuttle service is a nice plus as you would be on the other side of a highway from the mall. Since we like to sight see, we rented a car. We used Enterprise and left the car at the airport on our way home.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r139377039-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>139377039</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Stayed here for one night to attend a game at nearby Cowboys Stadium.  We found the hotel to be excellent and found no issues with the hotel itself.  It appears to be almost new and everything was immaculate.  The lobby is very upscale and the staff were all friendly.  There is a snack pantry that includes popcorn, ice cream, microwaveable dinners, etc if you are in need of something quick.
+There are four floors, interior corridors with a reasonable quick elevator.  The rooms are new with very nice furnishings and comfy bedding.  Our room had a seperate sitting area with fold-out sofa.  The room had a fridge/micro, flat screen TV, granite in bathroom, etc.  No apparant maintenance needs and we had no noise issues.
+There is a very nice indoor pool and hot tub.  Breakfast in the morning was very good and included sausage/eggs and waffle maker.  Everything was well-maintained and clean.
+The area around the hotel includes the North Mall with plenty of shopping just a couple of blocks away.  There are also several dining options, although I would not call them "walkable".  The only negative I noted was the awkward access to the hotel.  It is kind of hidden behind a fitness center and is addressed to the "loop" (interstate), so it can be difficult to find on first arrival.  Enter "Hurst, Tx" instead of "Richland Hills, Tx" into your GPS for starters...you'll at least be able to...Stayed here for one night to attend a game at nearby Cowboys Stadium.  We found the hotel to be excellent and found no issues with the hotel itself.  It appears to be almost new and everything was immaculate.  The lobby is very upscale and the staff were all friendly.  There is a snack pantry that includes popcorn, ice cream, microwaveable dinners, etc if you are in need of something quick.There are four floors, interior corridors with a reasonable quick elevator.  The rooms are new with very nice furnishings and comfy bedding.  Our room had a seperate sitting area with fold-out sofa.  The room had a fridge/micro, flat screen TV, granite in bathroom, etc.  No apparant maintenance needs and we had no noise issues.There is a very nice indoor pool and hot tub.  Breakfast in the morning was very good and included sausage/eggs and waffle maker.  Everything was well-maintained and clean.The area around the hotel includes the North Mall with plenty of shopping just a couple of blocks away.  There are also several dining options, although I would not call them "walkable".  The only negative I noted was the awkward access to the hotel.  It is kind of hidden behind a fitness center and is addressed to the "loop" (interstate), so it can be difficult to find on first arrival.  Enter "Hurst, Tx" instead of "Richland Hills, Tx" into your GPS for starters...you'll at least be able to see your target when it gets you close.Overall, a very good experience.  A great value and only 10 mins or so (w/out traffic) to the cowboys stadium/Texas Rangers/Six Flags.  Assuming the rates are competitive, I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for one night to attend a game at nearby Cowboys Stadium.  We found the hotel to be excellent and found no issues with the hotel itself.  It appears to be almost new and everything was immaculate.  The lobby is very upscale and the staff were all friendly.  There is a snack pantry that includes popcorn, ice cream, microwaveable dinners, etc if you are in need of something quick.
+There are four floors, interior corridors with a reasonable quick elevator.  The rooms are new with very nice furnishings and comfy bedding.  Our room had a seperate sitting area with fold-out sofa.  The room had a fridge/micro, flat screen TV, granite in bathroom, etc.  No apparant maintenance needs and we had no noise issues.
+There is a very nice indoor pool and hot tub.  Breakfast in the morning was very good and included sausage/eggs and waffle maker.  Everything was well-maintained and clean.
+The area around the hotel includes the North Mall with plenty of shopping just a couple of blocks away.  There are also several dining options, although I would not call them "walkable".  The only negative I noted was the awkward access to the hotel.  It is kind of hidden behind a fitness center and is addressed to the "loop" (interstate), so it can be difficult to find on first arrival.  Enter "Hurst, Tx" instead of "Richland Hills, Tx" into your GPS for starters...you'll at least be able to...Stayed here for one night to attend a game at nearby Cowboys Stadium.  We found the hotel to be excellent and found no issues with the hotel itself.  It appears to be almost new and everything was immaculate.  The lobby is very upscale and the staff were all friendly.  There is a snack pantry that includes popcorn, ice cream, microwaveable dinners, etc if you are in need of something quick.There are four floors, interior corridors with a reasonable quick elevator.  The rooms are new with very nice furnishings and comfy bedding.  Our room had a seperate sitting area with fold-out sofa.  The room had a fridge/micro, flat screen TV, granite in bathroom, etc.  No apparant maintenance needs and we had no noise issues.There is a very nice indoor pool and hot tub.  Breakfast in the morning was very good and included sausage/eggs and waffle maker.  Everything was well-maintained and clean.The area around the hotel includes the North Mall with plenty of shopping just a couple of blocks away.  There are also several dining options, although I would not call them "walkable".  The only negative I noted was the awkward access to the hotel.  It is kind of hidden behind a fitness center and is addressed to the "loop" (interstate), so it can be difficult to find on first arrival.  Enter "Hurst, Tx" instead of "Richland Hills, Tx" into your GPS for starters...you'll at least be able to see your target when it gets you close.Overall, a very good experience.  A great value and only 10 mins or so (w/out traffic) to the cowboys stadium/Texas Rangers/Six Flags.  Assuming the rates are competitive, I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r139314433-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>139314433</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>Had a great stay</t>
+  </si>
+  <si>
+    <t>We just returned from a 4 day stay here  It was great!!!  The staff was unbelievable, the service was awesome.  Right across the street from an awesome mall and lots of good restaurants all around. Rooms were very nice, breakfast was hot and lots of food.  Front desk staff and Norma were exception customer service representatives.  Would stay here in a heart beat.Can't comment on the safety of the area, taxied everywhere.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r139069803-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>139069803</t>
+  </si>
+  <si>
+    <t>09/01/2012</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>The actual address for this comfort suites 701 me loop 820 Hurst, Texas. Had a difficult time using the gps from the hotel. Very nice accommodations and a friendly staff. This hotel has an inside pool with hot tub and offers a good breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r136235846-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>136235846</t>
+  </si>
+  <si>
+    <t>08/04/2012</t>
+  </si>
+  <si>
+    <t>Noise! Noise! Noise! Noise!</t>
+  </si>
+  <si>
+    <t>My husband and I have four children, ages 15, 10, 3, and 1; when traveling as a family we always try to stay in some type of "suite" for the extra space. This Comfort Inn was a mistake. Let me simply list my complaints:1.  When the pull out couch is opened up there is less than a foot between the bed and desk. To top it off, the desk has curved feet and my husband stubbed his toes nearly everytime he walked by it. To get from the bedroom to the bathroom, we had to walk past the pull out. 2.  There were crickets and ants in the room. 3.  My biggest complaint was the noise. We could hear every step someone took above us. I live in a 100 year old house so I'm used to squeaky floors, but this was ridiculous noise. It kept me up at night. Oh, and the weedeating at 7:30 A.M. was unwelcome. MoreShow less</t>
+  </si>
+  <si>
+    <t>G M, General Manager at Comfort Suites Near Northeast Mall, responded to this reviewResponded August 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2012</t>
+  </si>
+  <si>
+    <t>My husband and I have four children, ages 15, 10, 3, and 1; when traveling as a family we always try to stay in some type of "suite" for the extra space. This Comfort Inn was a mistake. Let me simply list my complaints:1.  When the pull out couch is opened up there is less than a foot between the bed and desk. To top it off, the desk has curved feet and my husband stubbed his toes nearly everytime he walked by it. To get from the bedroom to the bathroom, we had to walk past the pull out. 2.  There were crickets and ants in the room. 3.  My biggest complaint was the noise. We could hear every step someone took above us. I live in a 100 year old house so I'm used to squeaky floors, but this was ridiculous noise. It kept me up at night. Oh, and the weedeating at 7:30 A.M. was unwelcome. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r135106360-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>135106360</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>Terrible stay</t>
+  </si>
+  <si>
+    <t>I reserved three rooms for two nights each in March.  There were two families with small children, plus one set of grandparents.  While booking over the phone, I specifically asked if we could have two of the rooms adjoining, and the other close by.  She assured me that they would be able to accommodate that request.  Upon arrival, I was immediately dissatisfied with check-in.  There was one person at the front desk taking care of all phone calls, reservations, shuttle bus airport pick ups, and arriving customers.  When it was finally my turn, she told me that the rooms were probably on the same floor, but definitely not adjoining.  I told her about my request and she said they could not promise anything upon booking.  I told her that someone did.  During this entire ordeal, she was answering phones and the line behind me was backing up.  I honestly heard her say "I'm sorry" to at least 5 customers while I was standing there.  Most of them were related to the shuttle service.  A gentleman who had just checked in moments before us had actually been assigned a room that was one of the two adjoining rooms.  He came back down to the desk for some reason and she actually asked him if he would mind leaving his room so we could have it.  I guess she was trying to accommodate us, but this was completely unprofessional and made everyone...I reserved three rooms for two nights each in March.  There were two families with small children, plus one set of grandparents.  While booking over the phone, I specifically asked if we could have two of the rooms adjoining, and the other close by.  She assured me that they would be able to accommodate that request.  Upon arrival, I was immediately dissatisfied with check-in.  There was one person at the front desk taking care of all phone calls, reservations, shuttle bus airport pick ups, and arriving customers.  When it was finally my turn, she told me that the rooms were probably on the same floor, but definitely not adjoining.  I told her about my request and she said they could not promise anything upon booking.  I told her that someone did.  During this entire ordeal, she was answering phones and the line behind me was backing up.  I honestly heard her say "I'm sorry" to at least 5 customers while I was standing there.  Most of them were related to the shuttle service.  A gentleman who had just checked in moments before us had actually been assigned a room that was one of the two adjoining rooms.  He came back down to the desk for some reason and she actually asked him if he would mind leaving his room so we could have it.  I guess she was trying to accommodate us, but this was completely unprofessional and made everyone in my party very uncomfortable.  He said ok, and went and moved his stuff out of the room.  Then she gave us the key and we went to it without even knowing what he may have already used in it.  If we didn't have 5 children under the age of 6 with us who were exhausted and hungry, I would have left this hotel as quickly as I could have.  To make a miserable hotel stay even more miserable, the fire alarm went off during the middle of the night and one family in our party was in an accessible room, so not only was the sound deafening, but there were bright flashing lights in their room as well.  Someone was banging on the doors and we had to go out into the hall to see if we needed to evacuate.  Of course, there was no emergency.  We now had two babies, one toddler, and two small children awake and terrified.  What a nightmare!  I am consistently disappointed with this chain of hotels.  I have tried three different ones in the last 10 months and will not return to any of them.  Holiday Inn Express is always less expensive, nicer, and cleaner.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>G M, Manager at Comfort Suites Near Northeast Mall, responded to this reviewResponded July 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2012</t>
+  </si>
+  <si>
+    <t>I reserved three rooms for two nights each in March.  There were two families with small children, plus one set of grandparents.  While booking over the phone, I specifically asked if we could have two of the rooms adjoining, and the other close by.  She assured me that they would be able to accommodate that request.  Upon arrival, I was immediately dissatisfied with check-in.  There was one person at the front desk taking care of all phone calls, reservations, shuttle bus airport pick ups, and arriving customers.  When it was finally my turn, she told me that the rooms were probably on the same floor, but definitely not adjoining.  I told her about my request and she said they could not promise anything upon booking.  I told her that someone did.  During this entire ordeal, she was answering phones and the line behind me was backing up.  I honestly heard her say "I'm sorry" to at least 5 customers while I was standing there.  Most of them were related to the shuttle service.  A gentleman who had just checked in moments before us had actually been assigned a room that was one of the two adjoining rooms.  He came back down to the desk for some reason and she actually asked him if he would mind leaving his room so we could have it.  I guess she was trying to accommodate us, but this was completely unprofessional and made everyone...I reserved three rooms for two nights each in March.  There were two families with small children, plus one set of grandparents.  While booking over the phone, I specifically asked if we could have two of the rooms adjoining, and the other close by.  She assured me that they would be able to accommodate that request.  Upon arrival, I was immediately dissatisfied with check-in.  There was one person at the front desk taking care of all phone calls, reservations, shuttle bus airport pick ups, and arriving customers.  When it was finally my turn, she told me that the rooms were probably on the same floor, but definitely not adjoining.  I told her about my request and she said they could not promise anything upon booking.  I told her that someone did.  During this entire ordeal, she was answering phones and the line behind me was backing up.  I honestly heard her say "I'm sorry" to at least 5 customers while I was standing there.  Most of them were related to the shuttle service.  A gentleman who had just checked in moments before us had actually been assigned a room that was one of the two adjoining rooms.  He came back down to the desk for some reason and she actually asked him if he would mind leaving his room so we could have it.  I guess she was trying to accommodate us, but this was completely unprofessional and made everyone in my party very uncomfortable.  He said ok, and went and moved his stuff out of the room.  Then she gave us the key and we went to it without even knowing what he may have already used in it.  If we didn't have 5 children under the age of 6 with us who were exhausted and hungry, I would have left this hotel as quickly as I could have.  To make a miserable hotel stay even more miserable, the fire alarm went off during the middle of the night and one family in our party was in an accessible room, so not only was the sound deafening, but there were bright flashing lights in their room as well.  Someone was banging on the doors and we had to go out into the hall to see if we needed to evacuate.  Of course, there was no emergency.  We now had two babies, one toddler, and two small children awake and terrified.  What a nightmare!  I am consistently disappointed with this chain of hotels.  I have tried three different ones in the last 10 months and will not return to any of them.  Holiday Inn Express is always less expensive, nicer, and cleaner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r132855718-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>132855718</t>
+  </si>
+  <si>
+    <t>06/26/2012</t>
+  </si>
+  <si>
+    <t>Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>We were a family of four adults attending a wedding the end of May. Everything about this motel was excellent. The staff, service, cleanliness of the rooms, breakfast and breakfast/ lounge area seating were all great. Even though we were four adults in one room we didn't feel cramped. The couch for extra seating was nice in the rooms. It also had a frig, coffee maker, microwave, flat screen tv, ironing board and iron.The bathrooms were roomy and clean. Oh, and we all slept well. The beds were very comfortable.It is also very close to a mall and several restaurants. All in all, we would definitely stay there again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r129433583-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
@@ -1264,15 +1708,9 @@
     <t>I found this hotel online while searching for a place to stay for the weekend while we attended an event at Cowboys Stadium. It was a much better deal than the location in Arlington. The hotel has a beautiful, modern decor. The staff were very friendly and helpful. The suite was large and comfortable with a good bed. I thought the breakfast was a little sparse, but it was better than a lot of places. From this location, you can easily get to the attractions in Arlington without getting on the freeways. Also, there is a large mall about a block away if you like to shop. It was a great choice for our stay!MoreShow less</t>
   </si>
   <si>
-    <t>April 2012</t>
-  </si>
-  <si>
     <t>I found this hotel online while searching for a place to stay for the weekend while we attended an event at Cowboys Stadium. It was a much better deal than the location in Arlington. The hotel has a beautiful, modern decor. The staff were very friendly and helpful. The suite was large and comfortable with a good bed. I thought the breakfast was a little sparse, but it was better than a lot of places. From this location, you can easily get to the attractions in Arlington without getting on the freeways. Also, there is a large mall about a block away if you like to shop. It was a great choice for our stay!More</t>
   </si>
   <si>
-    <t>laveda</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r127980854-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1288,9 +1726,6 @@
     <t>Needed a decent place to stay for the races, very nice staff was very nice.  Rooms are fairly large beds comfy, bathroom nice and big and clean great buy for the money.</t>
   </si>
   <si>
-    <t>pinlow</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r121836688-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1307,9 +1742,6 @@
   </si>
   <si>
     <t>December 2011</t>
-  </si>
-  <si>
-    <t>bjandljtravels</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r119721792-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
@@ -1339,9 +1771,6 @@
 One negative is that the hotel only has one elevator - for its size it probably needs two to reduce the wait time.  One other negative - it is located in an odd spot near the highway and to get back to the mall you have to take back roads and the highway going south is not easily accessible because the on-ramp is just before the property's entrance-so you...Stayed three nights at the Comfort Suites near Fort Worth for a church convention in mid-October with my spouse.  We received a great rate which made the stay a bargain.  The comfort suites is a nice property - nothing fancy but the hotel is fairly new and is in good condition.  The room was in good condition and included a couch.  Staff at the front desk "kiosks" were friendly and helpful.  The hotel offers a nice free breakfast and snacks in the afternoon.  The lobby is small but tastefully decorated.One comment on the snacks in the lobby in the afternoon.  It was a nice touch but they only offered wine or beer for free.  I don't drink alcohol and had to pay for a soft drink.  Offer free soft drinks as well.I would actually compare the quality of this propery to a Hilton Garden Inn - not quite as nice but almost.  It is certainly a much better value at about ~$50 less/night than recent stays at Garden Inns.One negative is that the hotel only has one elevator - for its size it probably needs two to reduce the wait time.  One other negative - it is located in an odd spot near the highway and to get back to the mall you have to take back roads and the highway going south is not easily accessible because the on-ramp is just before the property's entrance-so you have to travel the access road to the next exit.More</t>
   </si>
   <si>
-    <t>larry_kak</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r119590900-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1357,9 +1786,6 @@
     <t>I recently spent three nights at this hotel and would make the following observations:If you are part of a larger group check in, forget it.  They use 2 stations to check  in guests and wnen I wanted to check in one was not staffed. It took FOREVER!!!Breakfast is advertised to be ready at 6:30, but is never completely available until 6:45. Do not count on a complete breakfast at 6:30.Also there seemed to be a lack of knowledge regarding the local area. I drew blank stares when asking for directions and later established the location was in close proximity to the hotel and should have been known.</t>
   </si>
   <si>
-    <t>bbnkogle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r119373056-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1375,9 +1801,6 @@
     <t xml:space="preserve">I had to stay there because it was close to hospital. The people were so wonderful!! Rooms were nice and clean. Highly recommend to anyone </t>
   </si>
   <si>
-    <t>tke_303</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r89761002-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1399,9 +1822,6 @@
     <t>My typical business stays are at most Choice Hotel chains throughout Texas. I have to say, that this place has to be tops in my opinion. It's a new hotel, which by default will be much nicer than some of it's neighboring cousins in the area. Rooms have a "modern decor" to them, nice bathrooms, LCD tv's, suite style rooms, etc. This hotel almost has a very "boutique hotel" feel to it, very different from most Choice Hotel brands I've stayed at in the past. Location is great if your in the Mid-Cities (HEB) area, or in North or NorthEast Ft. Worth. Easy access on and off the highways, buch of restaurants around hotel. Not a bad drive from DFW (again if your staying in the area). As with your typical Comfort Suites, they've got an 'ok' continental breakfast in the morning, and a nice little 'happy hour' in the evening for us seasoned business road warriors. I LOVE any hotel that's got free beer for me; so, this place had me right when I walked in the door!Price is good too for those of us on travel expense budgets. I think I paid $85/night without taxes, great overall value for the quality of this hotel. All-in-all, great hotel with great accomodations, great price and great location (for NE Fort Worth). Would definately recommend.More</t>
   </si>
   <si>
-    <t>civil-warrior</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r78783823-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1423,9 +1843,6 @@
     <t>I was planning to stay here 2 nights. My plans changed and decided to stay another 3 nights. If that doesn't say it, what more do you want? It's about 15 minutes from downtown Fort Worth so it's easy to get to. Close to the highway for access but rooms were quiet. Location is nicely set back (not difficult to find) as some reviewers say, as long as you know the other landmarks to look for such as LA Fitness. Great mall and stores just across the highway with terrific restaurants choices! Staff was super friendly, nice, courteous, and accommodating. The parking lot is shared with a La Quinta which is just across from the Comfort Suites, and well lit. Again, it is set back so it felt pretty safe. The hotel itself is fairly narrow but 4 floors high. I was on the top floor so it all felt great. Breakfast was standard for a Comfort Suites, but with coffee and more available all day. Manager's reception were a few tacos and soda and taquinos (?) - nothing much unless you happen to be there at that time and hungry. Business center was convenient and private. No vending machines, but a small "store" of snacks and drinks in the lobby. The lobby was dark but pleasant. Rooms were well lit, extremely clean, well maintained, and housekeeping did everything they were supposed to do each day. The carpets in the...I was planning to stay here 2 nights. My plans changed and decided to stay another 3 nights. If that doesn't say it, what more do you want? It's about 15 minutes from downtown Fort Worth so it's easy to get to. Close to the highway for access but rooms were quiet. Location is nicely set back (not difficult to find) as some reviewers say, as long as you know the other landmarks to look for such as LA Fitness. Great mall and stores just across the highway with terrific restaurants choices! Staff was super friendly, nice, courteous, and accommodating. The parking lot is shared with a La Quinta which is just across from the Comfort Suites, and well lit. Again, it is set back so it felt pretty safe. The hotel itself is fairly narrow but 4 floors high. I was on the top floor so it all felt great. Breakfast was standard for a Comfort Suites, but with coffee and more available all day. Manager's reception were a few tacos and soda and taquinos (?) - nothing much unless you happen to be there at that time and hungry. Business center was convenient and private. No vending machines, but a small "store" of snacks and drinks in the lobby. The lobby was dark but pleasant. Rooms were well lit, extremely clean, well maintained, and housekeeping did everything they were supposed to do each day. The carpets in the room were an odd dark brown blend that looked like it was capturing dirt or trying to hide it. Beds were comfy, room was quiet. Good place to stay if in the area.More</t>
   </si>
   <si>
-    <t>snuggers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r63529690-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1447,9 +1864,6 @@
     <t>Upon entering the hotel you are greeted at a peninsula type counter not like other hotels with the big long front desk counter. I was greeted by name upon entering. The evening reception was just starting when I arrived. Nice snacks (warm nachos, chicken nuggets, tacquitos, etc), beer, wine and soda were provided. Breakfast was good the next morning too. They had eggs, sausage, TX waffles, assorted fruit and pasteries, and beverages to compliment any taste. The rooms were contemporary. They are new so everything is of exceptional quality. Granite in the bathroom, plush comforter on the bed, hidden fridge and microwave. Nice sized flat screen TV with all the good cable channels not just a few like you might get elsewhere. They have a business center, fitness room and pool. Convenient location to get to DFW, Fort Worth, Dallas, and shopping mall across the highway down a few blocks. Hotel not so easy to see from street which is good or bad. Hard to find the first time, but you will enjoy the quiet by not being right by the street. Best way to find is to GPS the KFC on the corner, LA fitness or the Saturn dealership down the road so you are sure to find it. Set back from the frontage road. On SW corner of Pipeline(aka Glenview) and 121 / 183 / 820 (same route numbers). If you see the KFC turn onto the frontage...Upon entering the hotel you are greeted at a peninsula type counter not like other hotels with the big long front desk counter. I was greeted by name upon entering. The evening reception was just starting when I arrived. Nice snacks (warm nachos, chicken nuggets, tacquitos, etc), beer, wine and soda were provided. Breakfast was good the next morning too. They had eggs, sausage, TX waffles, assorted fruit and pasteries, and beverages to compliment any taste. The rooms were contemporary. They are new so everything is of exceptional quality. Granite in the bathroom, plush comforter on the bed, hidden fridge and microwave. Nice sized flat screen TV with all the good cable channels not just a few like you might get elsewhere. They have a business center, fitness room and pool. Convenient location to get to DFW, Fort Worth, Dallas, and shopping mall across the highway down a few blocks. Hotel not so easy to see from street which is good or bad. Hard to find the first time, but you will enjoy the quiet by not being right by the street. Best way to find is to GPS the KFC on the corner, LA fitness or the Saturn dealership down the road so you are sure to find it. Set back from the frontage road. On SW corner of Pipeline(aka Glenview) and 121 / 183 / 820 (same route numbers). If you see the KFC turn onto the frontage road  go past LA fitness then look far back you will see the hotel set back from the road.More</t>
   </si>
   <si>
-    <t>tmwillie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r62197349-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -1466,9 +1880,6 @@
   </si>
   <si>
     <t>April 2010</t>
-  </si>
-  <si>
-    <t>bjbacker</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56540-d1477368-r58406859-Comfort_Suites_Near_Northeast_Mall-Richland_Hills_Texas.html</t>
@@ -1991,47 +2402,43 @@
       <c r="A2" t="n">
         <v>58858</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2045,54 +2452,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58858</v>
       </c>
-      <c r="B3" t="n">
-        <v>408</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2106,54 +2509,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58858</v>
       </c>
-      <c r="B4" t="n">
-        <v>125675</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2167,54 +2566,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58858</v>
       </c>
-      <c r="B5" t="n">
-        <v>125676</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2228,54 +2623,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58858</v>
       </c>
-      <c r="B6" t="n">
-        <v>47748</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2289,74 +2680,64 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58858</v>
       </c>
-      <c r="B7" t="n">
-        <v>639</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -2369,165 +2750,151 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
         <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58858</v>
       </c>
-      <c r="B9" t="n">
-        <v>125677</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58858</v>
       </c>
-      <c r="B10" t="n">
-        <v>58523</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
         <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2538,550 +2905,494 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58858</v>
       </c>
-      <c r="B11" t="n">
-        <v>125678</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>3</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>104</v>
+      </c>
+      <c r="X11" t="s">
+        <v>105</v>
+      </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58858</v>
       </c>
-      <c r="B12" t="n">
-        <v>104005</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>119</v>
+      </c>
+      <c r="X12" t="s">
+        <v>120</v>
+      </c>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58858</v>
       </c>
-      <c r="B13" t="n">
-        <v>3900</v>
-      </c>
-      <c r="C13" t="s">
-        <v>125</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
         <v>126</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>127</v>
       </c>
-      <c r="J13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" t="s">
-        <v>130</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>124</v>
-      </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>131</v>
-      </c>
-      <c r="X13" t="s">
-        <v>132</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58858</v>
       </c>
-      <c r="B14" t="n">
-        <v>105403</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="X14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58858</v>
       </c>
-      <c r="B15" t="n">
-        <v>125679</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>134</v>
+      </c>
+      <c r="X15" t="s">
+        <v>135</v>
+      </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58858</v>
       </c>
-      <c r="B16" t="n">
-        <v>125680</v>
-      </c>
-      <c r="C16" t="s">
-        <v>151</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58858</v>
       </c>
-      <c r="B17" t="n">
-        <v>125681</v>
-      </c>
-      <c r="C17" t="s">
-        <v>158</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>165</v>
-      </c>
-      <c r="X17" t="s">
-        <v>166</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58858</v>
       </c>
-      <c r="B18" t="n">
-        <v>125682</v>
-      </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3089,115 +3400,113 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58858</v>
       </c>
-      <c r="B19" t="n">
-        <v>584</v>
-      </c>
-      <c r="C19" t="s">
-        <v>175</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58858</v>
       </c>
-      <c r="B20" t="n">
-        <v>125683</v>
-      </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3211,131 +3520,119 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58858</v>
       </c>
-      <c r="B21" t="n">
-        <v>125684</v>
-      </c>
-      <c r="C21" t="s">
-        <v>188</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58858</v>
       </c>
-      <c r="B22" t="n">
-        <v>125685</v>
-      </c>
-      <c r="C22" t="s">
-        <v>195</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="O22" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3343,54 +3640,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58858</v>
       </c>
-      <c r="B23" t="n">
-        <v>72214</v>
-      </c>
-      <c r="C23" t="s">
-        <v>201</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3404,200 +3697,174 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58858</v>
       </c>
-      <c r="B24" t="n">
-        <v>9110</v>
-      </c>
-      <c r="C24" t="s">
-        <v>208</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="O24" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58858</v>
       </c>
-      <c r="B25" t="n">
-        <v>125686</v>
-      </c>
-      <c r="C25" t="s">
-        <v>215</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58858</v>
       </c>
-      <c r="B26" t="n">
-        <v>125687</v>
-      </c>
-      <c r="C26" t="s">
-        <v>223</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3605,58 +3872,52 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58858</v>
       </c>
-      <c r="B27" t="n">
-        <v>125688</v>
-      </c>
-      <c r="C27" t="s">
-        <v>231</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="n">
         <v>5</v>
       </c>
@@ -3672,66 +3933,62 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58858</v>
       </c>
-      <c r="B28" t="n">
-        <v>125689</v>
-      </c>
-      <c r="C28" t="s">
-        <v>238</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="J28" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="O28" t="s">
-        <v>149</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3739,185 +3996,193 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58858</v>
       </c>
-      <c r="B29" t="n">
-        <v>125690</v>
-      </c>
-      <c r="C29" t="s">
-        <v>244</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="J29" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="K29" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>216</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>222</v>
+      </c>
+      <c r="X29" t="s">
+        <v>223</v>
+      </c>
       <c r="Y29" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58858</v>
       </c>
-      <c r="B30" t="n">
-        <v>7432</v>
-      </c>
-      <c r="C30" t="s">
-        <v>250</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
-        <v>149</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>230</v>
+      </c>
+      <c r="X30" t="s">
+        <v>223</v>
+      </c>
       <c r="Y30" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58858</v>
       </c>
-      <c r="B31" t="n">
-        <v>125691</v>
-      </c>
-      <c r="C31" t="s">
-        <v>258</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s">
-        <v>149</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3928,60 +4193,56 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58858</v>
       </c>
-      <c r="B32" t="n">
-        <v>125692</v>
-      </c>
-      <c r="C32" t="s">
-        <v>265</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
       <c r="S32" t="n">
         <v>5</v>
       </c>
@@ -3995,112 +4256,125 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58858</v>
       </c>
-      <c r="B33" t="n">
-        <v>72541</v>
-      </c>
-      <c r="C33" t="s">
-        <v>271</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="J33" t="s">
-        <v>274</v>
-      </c>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
-      <c r="M33" t="s"/>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="s"/>
+        <v>247</v>
+      </c>
+      <c r="K33" t="s">
+        <v>248</v>
+      </c>
+      <c r="L33" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>250</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>251</v>
+      </c>
+      <c r="X33" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58858</v>
       </c>
-      <c r="B34" t="n">
-        <v>125693</v>
-      </c>
-      <c r="C34" t="s">
-        <v>275</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="J34" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -4112,284 +4386,234 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58858</v>
       </c>
-      <c r="B35" t="n">
-        <v>125694</v>
-      </c>
-      <c r="C35" t="s">
-        <v>283</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="J35" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="K35" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="O35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58858</v>
       </c>
-      <c r="B36" t="n">
-        <v>125695</v>
-      </c>
-      <c r="C36" t="s">
-        <v>289</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="O36" t="s">
-        <v>77</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>58858</v>
       </c>
-      <c r="B37" t="n">
-        <v>83065</v>
-      </c>
-      <c r="C37" t="s">
-        <v>295</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="J37" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="K37" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>302</v>
-      </c>
-      <c r="X37" t="s">
-        <v>303</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>58858</v>
       </c>
-      <c r="B38" t="n">
-        <v>125696</v>
-      </c>
-      <c r="C38" t="s">
-        <v>305</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4400,54 +4624,50 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>58858</v>
       </c>
-      <c r="B39" t="n">
-        <v>125697</v>
-      </c>
-      <c r="C39" t="s">
-        <v>312</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4461,64 +4681,56 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>58858</v>
       </c>
-      <c r="B40" t="n">
-        <v>125679</v>
-      </c>
-      <c r="C40" t="s">
-        <v>151</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="L40" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s">
-        <v>77</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
         <v>5</v>
       </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
         <v>5</v>
       </c>
@@ -4532,67 +4744,59 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>58858</v>
       </c>
-      <c r="B41" t="n">
-        <v>7948</v>
-      </c>
-      <c r="C41" t="s">
-        <v>325</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="J41" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="K41" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="L41" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="O41" t="s">
-        <v>77</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
         <v>5</v>
       </c>
       <c r="R41" t="n">
         <v>5</v>
       </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
         <v>5</v>
@@ -4603,64 +4807,56 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>58858</v>
       </c>
-      <c r="B42" t="n">
-        <v>10362</v>
-      </c>
-      <c r="C42" t="s">
-        <v>331</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="J42" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="K42" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="L42" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
         <v>5</v>
       </c>
@@ -4674,66 +4870,62 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>58858</v>
       </c>
-      <c r="B43" t="n">
-        <v>125698</v>
-      </c>
-      <c r="C43" t="s">
-        <v>339</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="J43" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="K43" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="L43" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>306</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
       <c r="P43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4741,70 +4933,62 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>58858</v>
       </c>
-      <c r="B44" t="n">
-        <v>125699</v>
-      </c>
-      <c r="C44" t="s">
-        <v>345</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="J44" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="K44" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="L44" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="O44" t="s">
-        <v>77</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4812,213 +4996,173 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>58858</v>
       </c>
-      <c r="B45" t="n">
-        <v>125700</v>
-      </c>
-      <c r="C45" t="s">
-        <v>352</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="J45" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="K45" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="L45" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s">
-        <v>358</v>
-      </c>
-      <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>58858</v>
       </c>
-      <c r="B46" t="n">
-        <v>125701</v>
-      </c>
-      <c r="C46" t="s">
-        <v>360</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="J46" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="K46" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
       </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>366</v>
-      </c>
-      <c r="X46" t="s">
-        <v>367</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>58858</v>
       </c>
-      <c r="B47" t="n">
-        <v>125702</v>
-      </c>
-      <c r="C47" t="s">
-        <v>369</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="J47" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="K47" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="O47" t="s">
-        <v>149</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -5029,64 +5173,56 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>58858</v>
       </c>
-      <c r="B48" t="n">
-        <v>125703</v>
-      </c>
-      <c r="C48" t="s">
-        <v>375</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="J48" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="K48" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="L48" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
       </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
         <v>5</v>
       </c>
@@ -5100,64 +5236,56 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>58858</v>
       </c>
-      <c r="B49" t="n">
-        <v>125704</v>
-      </c>
-      <c r="C49" t="s">
-        <v>382</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="J49" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="K49" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="L49" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>3</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
         <v>4</v>
       </c>
@@ -5171,54 +5299,50 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>58858</v>
       </c>
-      <c r="B50" t="n">
-        <v>125705</v>
-      </c>
-      <c r="C50" t="s">
-        <v>389</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="J50" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="K50" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="L50" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5227,7 +5351,7 @@
         <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -5242,66 +5366,62 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>58858</v>
       </c>
-      <c r="B51" t="n">
-        <v>125706</v>
-      </c>
-      <c r="C51" t="s">
-        <v>397</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="J51" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="K51" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="L51" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="O51" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
@@ -5313,57 +5433,53 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>58858</v>
       </c>
-      <c r="B52" t="n">
-        <v>125707</v>
-      </c>
-      <c r="C52" t="s">
-        <v>404</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="J52" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="K52" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="L52" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="O52" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
         <v>5</v>
@@ -5376,7 +5492,7 @@
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5384,134 +5500,130 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>58858</v>
       </c>
-      <c r="B53" t="n">
-        <v>125708</v>
-      </c>
-      <c r="C53" t="s">
-        <v>412</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="J53" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="K53" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="L53" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
         <v>3</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>370</v>
+      </c>
+      <c r="X53" t="s">
+        <v>371</v>
+      </c>
       <c r="Y53" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>58858</v>
       </c>
-      <c r="B54" t="n">
-        <v>125709</v>
-      </c>
-      <c r="C54" t="s">
-        <v>418</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="J54" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="K54" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="L54" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="O54" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -5526,54 +5638,50 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>58858</v>
       </c>
-      <c r="B55" t="n">
-        <v>125710</v>
-      </c>
-      <c r="C55" t="s">
-        <v>425</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="J55" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="K55" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="L55" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="O55" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5587,70 +5695,66 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>58858</v>
       </c>
-      <c r="B56" t="n">
-        <v>125711</v>
-      </c>
-      <c r="C56" t="s">
-        <v>433</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="J56" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="K56" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="L56" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>390</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
         <v>3</v>
       </c>
-      <c r="N56" t="s">
-        <v>431</v>
-      </c>
-      <c r="O56" t="s">
-        <v>69</v>
-      </c>
-      <c r="P56" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5658,51 +5762,51 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>58858</v>
       </c>
-      <c r="B57" t="n">
-        <v>125712</v>
-      </c>
-      <c r="C57" t="s">
-        <v>439</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="J57" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="K57" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="L57" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
+      <c r="N57" t="s">
+        <v>390</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
       <c r="P57" t="n">
         <v>5</v>
       </c>
@@ -5710,10 +5814,10 @@
         <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
@@ -5725,60 +5829,56 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>58858</v>
       </c>
-      <c r="B58" t="n">
-        <v>125713</v>
-      </c>
-      <c r="C58" t="s">
-        <v>445</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="J58" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="K58" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="L58" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R58" t="n">
         <v>4</v>
@@ -5788,7 +5888,7 @@
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5796,60 +5896,56 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58858</v>
       </c>
-      <c r="B59" t="n">
-        <v>125714</v>
-      </c>
-      <c r="C59" t="s">
-        <v>453</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="J59" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="K59" t="s">
-        <v>457</v>
+        <v>334</v>
       </c>
       <c r="L59" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="O59" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
         <v>5</v>
@@ -5867,54 +5963,50 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>58858</v>
       </c>
-      <c r="B60" t="n">
-        <v>125715</v>
-      </c>
-      <c r="C60" t="s">
-        <v>461</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>462</v>
+        <v>408</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
       <c r="J60" t="s">
-        <v>464</v>
+        <v>410</v>
       </c>
       <c r="K60" t="s">
-        <v>465</v>
+        <v>411</v>
       </c>
       <c r="L60" t="s">
-        <v>466</v>
+        <v>412</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5938,54 +6030,50 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>468</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>58858</v>
       </c>
-      <c r="B61" t="n">
-        <v>125716</v>
-      </c>
-      <c r="C61" t="s">
-        <v>469</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>470</v>
+        <v>415</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>471</v>
+        <v>416</v>
       </c>
       <c r="J61" t="s">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="K61" t="s">
-        <v>473</v>
+        <v>418</v>
       </c>
       <c r="L61" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="O61" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5997,7 +6085,7 @@
         <v>4</v>
       </c>
       <c r="S61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
@@ -6009,54 +6097,50 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>58858</v>
       </c>
-      <c r="B62" t="n">
-        <v>125717</v>
-      </c>
-      <c r="C62" t="s">
-        <v>476</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>478</v>
+        <v>422</v>
       </c>
       <c r="J62" t="s">
-        <v>479</v>
+        <v>423</v>
       </c>
       <c r="K62" t="s">
-        <v>480</v>
+        <v>424</v>
       </c>
       <c r="L62" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6065,7 +6149,7 @@
         <v>5</v>
       </c>
       <c r="R62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S62" t="n">
         <v>5</v>
@@ -6080,7 +6164,2056 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>427</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>428</v>
+      </c>
+      <c r="J63" t="s">
+        <v>429</v>
+      </c>
+      <c r="K63" t="s">
+        <v>430</v>
+      </c>
+      <c r="L63" t="s">
+        <v>431</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>413</v>
+      </c>
+      <c r="O63" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>433</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>434</v>
+      </c>
+      <c r="J64" t="s">
+        <v>435</v>
+      </c>
+      <c r="K64" t="s">
+        <v>436</v>
+      </c>
+      <c r="L64" t="s">
+        <v>437</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>438</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>439</v>
+      </c>
+      <c r="J65" t="s">
+        <v>440</v>
+      </c>
+      <c r="K65" t="s">
+        <v>441</v>
+      </c>
+      <c r="L65" t="s">
+        <v>442</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>443</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>444</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>445</v>
+      </c>
+      <c r="J66" t="s">
+        <v>446</v>
+      </c>
+      <c r="K66" t="s">
+        <v>447</v>
+      </c>
+      <c r="L66" t="s">
+        <v>448</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>420</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>450</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>451</v>
+      </c>
+      <c r="J67" t="s">
+        <v>452</v>
+      </c>
+      <c r="K67" t="s">
+        <v>453</v>
+      </c>
+      <c r="L67" t="s">
+        <v>454</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>420</v>
+      </c>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>455</v>
+      </c>
+      <c r="X67" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>458</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>459</v>
+      </c>
+      <c r="J68" t="s">
+        <v>460</v>
+      </c>
+      <c r="K68" t="s">
+        <v>461</v>
+      </c>
+      <c r="L68" t="s">
+        <v>462</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>378</v>
+      </c>
+      <c r="O68" t="s">
+        <v>148</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>463</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>464</v>
+      </c>
+      <c r="J69" t="s">
+        <v>465</v>
+      </c>
+      <c r="K69" t="s">
+        <v>466</v>
+      </c>
+      <c r="L69" t="s">
+        <v>467</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>378</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>469</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>470</v>
+      </c>
+      <c r="J70" t="s">
+        <v>471</v>
+      </c>
+      <c r="K70" t="s">
+        <v>472</v>
+      </c>
+      <c r="L70" t="s">
+        <v>473</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>378</v>
+      </c>
+      <c r="O70" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>475</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>476</v>
+      </c>
+      <c r="J71" t="s">
+        <v>477</v>
+      </c>
+      <c r="K71" t="s">
+        <v>478</v>
+      </c>
+      <c r="L71" t="s">
+        <v>479</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>480</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
         <v>481</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>482</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>483</v>
+      </c>
+      <c r="J72" t="s">
+        <v>484</v>
+      </c>
+      <c r="K72" t="s">
+        <v>485</v>
+      </c>
+      <c r="L72" t="s">
+        <v>486</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>480</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>488</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>489</v>
+      </c>
+      <c r="J73" t="s">
+        <v>490</v>
+      </c>
+      <c r="K73" t="s">
+        <v>376</v>
+      </c>
+      <c r="L73" t="s">
+        <v>491</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>492</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>493</v>
+      </c>
+      <c r="J74" t="s">
+        <v>494</v>
+      </c>
+      <c r="K74" t="s">
+        <v>495</v>
+      </c>
+      <c r="L74" t="s">
+        <v>496</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>497</v>
+      </c>
+      <c r="O74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>499</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>500</v>
+      </c>
+      <c r="J75" t="s">
+        <v>501</v>
+      </c>
+      <c r="K75" t="s">
+        <v>502</v>
+      </c>
+      <c r="L75" t="s">
+        <v>503</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>505</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>506</v>
+      </c>
+      <c r="J76" t="s">
+        <v>507</v>
+      </c>
+      <c r="K76" t="s">
+        <v>508</v>
+      </c>
+      <c r="L76" t="s">
+        <v>509</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>510</v>
+      </c>
+      <c r="O76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>511</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>512</v>
+      </c>
+      <c r="J77" t="s">
+        <v>513</v>
+      </c>
+      <c r="K77" t="s">
+        <v>514</v>
+      </c>
+      <c r="L77" t="s">
+        <v>515</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>516</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>518</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>519</v>
+      </c>
+      <c r="J78" t="s">
+        <v>520</v>
+      </c>
+      <c r="K78" t="s">
+        <v>521</v>
+      </c>
+      <c r="L78" t="s">
+        <v>522</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>523</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>524</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>525</v>
+      </c>
+      <c r="J79" t="s">
+        <v>526</v>
+      </c>
+      <c r="K79" t="s">
+        <v>527</v>
+      </c>
+      <c r="L79" t="s">
+        <v>528</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>516</v>
+      </c>
+      <c r="O79" t="s">
+        <v>148</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>529</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>530</v>
+      </c>
+      <c r="J80" t="s">
+        <v>531</v>
+      </c>
+      <c r="K80" t="s">
+        <v>532</v>
+      </c>
+      <c r="L80" t="s">
+        <v>533</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>534</v>
+      </c>
+      <c r="X80" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>537</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>538</v>
+      </c>
+      <c r="J81" t="s">
+        <v>539</v>
+      </c>
+      <c r="K81" t="s">
+        <v>540</v>
+      </c>
+      <c r="L81" t="s">
+        <v>541</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>542</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>543</v>
+      </c>
+      <c r="X81" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>546</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>547</v>
+      </c>
+      <c r="J82" t="s">
+        <v>548</v>
+      </c>
+      <c r="K82" t="s">
+        <v>549</v>
+      </c>
+      <c r="L82" t="s">
+        <v>550</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>542</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>551</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>552</v>
+      </c>
+      <c r="J83" t="s">
+        <v>553</v>
+      </c>
+      <c r="K83" t="s">
+        <v>554</v>
+      </c>
+      <c r="L83" t="s">
+        <v>555</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>510</v>
+      </c>
+      <c r="O83" t="s">
+        <v>148</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>557</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>558</v>
+      </c>
+      <c r="J84" t="s">
+        <v>559</v>
+      </c>
+      <c r="K84" t="s">
+        <v>560</v>
+      </c>
+      <c r="L84" t="s">
+        <v>561</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>510</v>
+      </c>
+      <c r="O84" t="s">
+        <v>59</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>562</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>563</v>
+      </c>
+      <c r="J85" t="s">
+        <v>564</v>
+      </c>
+      <c r="K85" t="s">
+        <v>565</v>
+      </c>
+      <c r="L85" t="s">
+        <v>566</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>567</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>568</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>569</v>
+      </c>
+      <c r="J86" t="s">
+        <v>570</v>
+      </c>
+      <c r="K86" t="s">
+        <v>571</v>
+      </c>
+      <c r="L86" t="s">
+        <v>572</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>573</v>
+      </c>
+      <c r="O86" t="s">
+        <v>148</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>575</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>576</v>
+      </c>
+      <c r="J87" t="s">
+        <v>577</v>
+      </c>
+      <c r="K87" t="s">
+        <v>578</v>
+      </c>
+      <c r="L87" t="s">
+        <v>579</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>573</v>
+      </c>
+      <c r="O87" t="s">
+        <v>73</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>580</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>581</v>
+      </c>
+      <c r="J88" t="s">
+        <v>582</v>
+      </c>
+      <c r="K88" t="s">
+        <v>583</v>
+      </c>
+      <c r="L88" t="s">
+        <v>584</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>585</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>586</v>
+      </c>
+      <c r="J89" t="s">
+        <v>587</v>
+      </c>
+      <c r="K89" t="s">
+        <v>588</v>
+      </c>
+      <c r="L89" t="s">
+        <v>589</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>590</v>
+      </c>
+      <c r="O89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>592</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>593</v>
+      </c>
+      <c r="J90" t="s">
+        <v>594</v>
+      </c>
+      <c r="K90" t="s">
+        <v>595</v>
+      </c>
+      <c r="L90" t="s">
+        <v>596</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>597</v>
+      </c>
+      <c r="O90" t="s">
+        <v>73</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>599</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>600</v>
+      </c>
+      <c r="J91" t="s">
+        <v>601</v>
+      </c>
+      <c r="K91" t="s">
+        <v>602</v>
+      </c>
+      <c r="L91" t="s">
+        <v>603</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>604</v>
+      </c>
+      <c r="O91" t="s">
+        <v>59</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>606</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>607</v>
+      </c>
+      <c r="J92" t="s">
+        <v>608</v>
+      </c>
+      <c r="K92" t="s">
+        <v>609</v>
+      </c>
+      <c r="L92" t="s">
+        <v>610</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>611</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>58858</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>612</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>613</v>
+      </c>
+      <c r="J93" t="s">
+        <v>614</v>
+      </c>
+      <c r="K93" t="s">
+        <v>615</v>
+      </c>
+      <c r="L93" t="s">
+        <v>616</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>617</v>
+      </c>
+      <c r="O93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
